--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE29DBF4-1EC9-A64A-BD2F-73ADF8FE3390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769C528-CF40-1749-B3D2-27F72B483BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2740" windowWidth="26740" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="4620" yWindow="2740" windowWidth="26740" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -336,6 +336,492 @@
   </si>
   <si>
     <t xml:space="preserve">    NDCG: 0.6637, 0.6455, 0.6538, 0.6509, 0.6556 | 0.6539, 0.0060</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:59, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2445</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3630</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6505</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:08, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2413</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3542</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6429</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:03, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3588</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6455</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:09, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2459</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6470</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:02, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2482</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6548</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3698, 0.3649, 0.3638, 0.3679, 0.3722 | 0.3677, 0.0031</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2488, 0.2468, 0.2506, 0.2475, 0.2506 | 0.2489, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2975, 0.2944, 0.2968, 0.2959, 0.2995 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6627, 0.6507, 0.6555, 0.6556, 0.6616 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6572</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0044</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -757,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:K15"/>
+  <dimension ref="B6:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,10 +1294,68 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -825,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769C528-CF40-1749-B3D2-27F72B483BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1FBE7-F1E7-6D49-AF52-B7BDF690B166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4620" yWindow="2740" windowWidth="26740" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -822,6 +822,1384 @@
       </rPr>
       <t>, 0.0044</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3664, 0.3637, 0.3497, 0.3601, 0.3660 | 0.3612, 0.0062</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2443, 0.2449, 0.2438, 0.2439, 0.2448 | 0.2443, 0.0004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2931, 0.2927, 0.2873, 0.2908, 0.2934 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2915</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6521, 0.6438, 0.6572, 0.6446, 0.6583 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0061</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:30, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2422</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3604</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6444</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:31, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2418</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3583</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6373</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:31, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2436</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6424</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:13, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2437</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3598</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6448</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2409</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3577</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6504</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3693, 0.3661, 0.3643, 0.3620, 0.3710 | 0.3665, 0.0033</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2463, 0.2456, 0.2467, 0.2461, 0.2496 | 0.2469, 0.0014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2955, 0.2940, 0.2942, 0.2930, 0.2985 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2950</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6580, 0.6472, 0.6518, 0.6542, 0.6630 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6548</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 08:30, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2464</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3676</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6633</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 08:24, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3690</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6530</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 08:34, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3636</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6568</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 08:38, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2483</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3672</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6576</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 08:43, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2519</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6609</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3717, 0.3696, 0.3640, 0.3734, 0.3774 | 0.3712, 0.0044</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2486, 0.2500, 0.2490, 0.2499, 0.2526 | 0.2500, 0.0014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2979, 0.2982, 0.2958, 0.2994, 0.3027 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2988</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6660, 0.6553, 0.6599, 0.6576, 0.6648 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6607</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0041</t>
+    </r>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>NCDG</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>LightGCN</t>
+  </si>
+  <si>
+    <t>hyperGCN</t>
+  </si>
+  <si>
+    <t>hyperAttnGCN</t>
   </si>
 </sst>
 </file>
@@ -901,12 +2279,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,25 +2634,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -1357,9 +2751,222 @@
         <v>40</v>
       </c>
     </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N56" s="6"/>
+      <c r="O56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>2</v>
+      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>3</v>
+      </c>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>4</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.6552</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>5</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="T63" s="5">
+        <v>0.66069999999999995</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B6:I6"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1367,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:B29"/>
+  <dimension ref="B4:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,6 +3102,96 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1FBE7-F1E7-6D49-AF52-B7BDF690B166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849504A-042C-834F-BB57-6F03BDE69C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2740" windowWidth="26740" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2740" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -2200,6 +2201,2891 @@
   </si>
   <si>
     <t>hyperAttnGCN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3660, 0.3667, 0.3560, 0.3606, 0.3682 | 0.3635, 0.0045</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2441, 0.2440, 0.2455, 0.2455, 0.2471 | 0.2452, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2929, 0.2930, 0.2906, 0.2921, 0.2957 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2929</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6544, 0.6486, 0.6601, 0.6543, 0.6585 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6552</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0040</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:50, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2461</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3697</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6566</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2447</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3651</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6473</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>^[[B^[[B^[[B^[[B^[[B^[[B^[[B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 08:00, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2477</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6539</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:52, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2475</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3624</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6479</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2484</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3692</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6553</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3756, 0.3718, 0.3668, 0.3703, 0.3736 | 0.3716, 0.0030</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2488, 0.2476, 0.2515, 0.2501, 0.2500 | 0.2496, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2993, 0.2972, 0.2984, 0.2985, 0.2995 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2986</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6607, 0.6526, 0.6586, 0.6563, 0.6607 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6578</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0031</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3501, 0.3476, 0.3417, 0.3482, 0.3520 | 0.3479, 0.0035</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2341, 0.2323, 0.2334, 0.2354, 0.2340 | 0.2338, 0.0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2806, 0.2785, 0.2774, 0.2809, 0.2811 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2797</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6376, 0.6328, 0.6432, 0.6369, 0.6369 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6375</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0033</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:06, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2037</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5715</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:05, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3053</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5779</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:04, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5782</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:02, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2056</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3093</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5734</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:04, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5856</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3533, 0.3535, 0.3523, 0.3534, 0.3566 | 0.3538, 0.0015</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2367, 0.2383, 0.2392, 0.2385, 0.2393 | 0.2384, 0.0009</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2835, 0.2847, 0.2849, 0.2848, 0.2864 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2849</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6464, 0.6368, 0.6466, 0.6445, 0.6432 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6435</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0036</t>
+    </r>
+  </si>
+  <si>
+    <t>Loading results from models/LightGCN_bi_1_101_experiment_results.pkl...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3591, 0.3542, 0.3545, 0.3590, 0.3604 | 0.3574, 0.0026</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2421, 0.2382, 0.2421, 0.2392, 0.2411 | 0.2405, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2892, 0.2848, 0.2877, 0.2871, 0.2889 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2875</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6481, 0.6374, 0.6432, 0.6404, 0.6495 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6437</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0046</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:00, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5673</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:57, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5691</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:57, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1997</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2955</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5654</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:03, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5658</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:59, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1957</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2982</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5724</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3615, 0.3546, 0.3537, 0.3577, 0.3591 | 0.3573, 0.0029</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2416, 0.2410, 0.2408, 0.2427, 0.2443 | 0.2421, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2897, 0.2870, 0.2865, 0.2892, 0.2908 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2886</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6501, 0.6387, 0.6424, 0.6433, 0.6452 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6439</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0037</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3693, 0.3643, 0.3645, 0.3644, 0.3734 | 0.3672, 0.0036</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2471, 0.2465, 0.2488, 0.2483, 0.2489 | 0.2479, 0.0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2961, 0.2940, 0.2957, 0.2954, 0.2987 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6642, 0.6543, 0.6551, 0.6530, 0.6583 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0040</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3644, 0.3592, 0.3540, 0.3570, 0.3663 | 0.3602, 0.0046</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2439, 0.2420, 0.2427, 0.2445, 0.2448 | 0.2436, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2922, 0.2892, 0.2880, 0.2902, 0.2935 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2906</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6524, 0.6449, 0.6535, 0.6479, 0.6590 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6515</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0048</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:18, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3582</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6363</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:20, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3509</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6388</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:06, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3490</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6409</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:16, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2387</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6383</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3592</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6456</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.2093, 0.2079, 0.2222, 0.2185, 0.2233 | 0.2162, 0.0065</t>
+  </si>
+  <si>
+    <t>    Prec: 0.1633, 0.1635, 0.1705, 0.1684, 0.1707 | 0.1673, 0.0033</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.1835, 0.1831, 0.1930, 0.1902, 0.1935 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1887</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0045</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.4806, 0.4712, 0.5029, 0.4843, 0.4842 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4846</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0103</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>norm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>x_j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2209,7 +5095,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2251,6 +5137,36 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF001080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF098658"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF267F99"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2279,7 +5195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2296,9 +5212,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2634,10 +5552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:T63"/>
+  <dimension ref="B6:Y94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,153 +5749,373 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N56" s="6"/>
-      <c r="O56" s="4" t="s">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S54" s="6"/>
+      <c r="T54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4" t="s">
+      <c r="U54" s="4"/>
+      <c r="V54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4" t="s">
+      <c r="W54" s="4"/>
+      <c r="X54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T56" s="4"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N57" s="7" t="s">
+      <c r="Y54" s="4"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S55" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="T55" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="U55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="V55" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R57" s="8" t="s">
+      <c r="W55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S57" s="8" t="s">
+      <c r="X55" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="T57" s="8" t="s">
+      <c r="Y55" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N58" s="3">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S56" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S57" s="3">
+        <v>1</v>
+      </c>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S58" s="3">
+        <v>2</v>
+      </c>
       <c r="T58" s="5"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>3</v>
+      </c>
       <c r="T59" s="5"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N60" s="3">
-        <v>2</v>
-      </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N61" s="3">
-        <v>3</v>
-      </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N62" s="3">
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S60" s="3">
         <v>4</v>
       </c>
-      <c r="O62" s="5">
+      <c r="T60" s="5">
         <v>0.29289999999999999</v>
       </c>
-      <c r="P62" s="5">
+      <c r="U60" s="5">
         <v>0.6552</v>
       </c>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N63" s="3">
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>0.65780000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
         <v>5</v>
       </c>
-      <c r="O63" s="5">
+      <c r="T61" s="5">
         <v>0.29449999999999998</v>
       </c>
-      <c r="P63" s="5">
+      <c r="U61" s="5">
         <v>0.65790000000000004</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="V61" s="5">
         <v>0.29680000000000001</v>
       </c>
-      <c r="R63" s="5">
+      <c r="W61" s="5">
         <v>0.65720000000000001</v>
       </c>
-      <c r="S63" s="5">
+      <c r="X61" s="5">
         <v>0.29880000000000001</v>
       </c>
-      <c r="T63" s="5">
+      <c r="Y61" s="5">
         <v>0.66069999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
+  <dimension ref="C9:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="8"/>
+      <c r="J9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
+      <c r="J11" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="8"/>
+      <c r="J12" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="8"/>
+      <c r="J13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:B51"/>
+  <dimension ref="B4:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,6 +6330,245 @@
         <v>55</v>
       </c>
     </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V65">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="W65">
+        <v>0.28489999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V66">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="W66">
+        <f>0.2797</f>
+        <v>0.2797</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V67">
+        <f>V65-V66</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="W67">
+        <f>W65-W66</f>
+        <v>5.1999999999999824E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V68" s="1">
+        <f>V67/V66</f>
+        <v>9.4117647058823625E-3</v>
+      </c>
+      <c r="W68" s="1">
+        <f>W67/W66</f>
+        <v>1.8591347872720709E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849504A-042C-834F-BB57-6F03BDE69C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14910CE3-5FB6-6944-9BCD-F8B5E8CC99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2740" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -5049,6 +5049,1119 @@
         <family val="2"/>
       </rPr>
       <t>).view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3567, 0.3630, 0.3505, 0.3542, 0.3607 | 0.3570, 0.0045</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2410, 0.2415, 0.2398, 0.2402, 0.2403 | 0.2406, 0.0006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2876, 0.2900, 0.2848, 0.2863, 0.2884 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2874</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6413, 0.6425, 0.6477, 0.6380, 0.6490 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6437</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>norm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>x_j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.sigmoid(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3636, 0.3619, 0.3590, 0.3598, 0.3683 | 0.3625, 0.0033</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2418, 0.2432, 0.2439, 0.2446, 0.2465 | 0.2440, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2904, 0.2909, 0.2905, 0.2912, 0.2953 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2917</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6508, 0.6452, 0.6514, 0.6491, 0.6552 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0033</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3610, 0.3591, 0.3514, 0.3552, 0.3605 | 0.3574, 0.0036</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2413, 0.2413, 0.2414, 0.2423, 0.2414 | 0.2415, 0.0004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2893, 0.2887, 0.2862, 0.2881, 0.2892 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2883</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6490, 0.6407, 0.6536, 0.6446, 0.6515 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6479</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0047</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:18, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6130</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:22, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2213</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3326</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:21, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3332</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6135</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:24, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2215</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3314</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6114</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:28, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6173</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3569, 0.3517, 0.3460, 0.3530, 0.3608 | 0.3537, 0.0050</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2388, 0.2372, 0.2363, 0.2392, 0.2392 | 0.2381, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2861, 0.2834, 0.2808, 0.2851, 0.2877 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2846</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6430, 0.6342, 0.6479, 0.6391, 0.6483 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6425</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>norm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>x_j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.view(-</t>
     </r>
     <r>
       <rPr>
@@ -5552,10 +6665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:Y94"/>
+  <dimension ref="B6:Y116"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6049,6 +7162,96 @@
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6064,45 +7267,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C9:J13"/>
+  <dimension ref="C3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G9" s="8"/>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="K11" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="J10" s="2" t="s">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="8"/>
+      <c r="K12" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G11" s="8"/>
-      <c r="J11" s="2" t="s">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="8"/>
+      <c r="K13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G12" s="8"/>
-      <c r="J12" s="2" t="s">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G13" s="8"/>
-      <c r="J13" s="2" t="s">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="2" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6114,8 +7420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14910CE3-5FB6-6944-9BCD-F8B5E8CC99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813075B-DF73-6040-86E0-2FC325DA7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2740" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="AttnMode" sheetId="3" r:id="rId2"/>
     <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'LightGCN_ml100k - GPU'!$R$128:$R$132</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'LightGCN_ml100k - GPU'!$S$128:$S$132</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="187">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -6198,6 +6202,979 @@
         <family val="2"/>
       </rPr>
       <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3595, 0.3585, 0.3568, 0.3592, 0.3671 | 0.3602, 0.0036</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2403, 0.2407, 0.2433, 0.2400, 0.2441 | 0.2417, 0.0017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2880, 0.2880, 0.2893, 0.2877, 0.2933 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2893</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6511, 0.6394, 0.6482, 0.6426, 0.6537 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6470</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3491, 0.3481, 0.3402, 0.3438, 0.3527 | 0.3468, 0.0043</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2321, 0.2312, 0.2322, 0.2351, 0.2360 | 0.2333, 0.0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2788, 0.2779, 0.2760, 0.2792, 0.2828 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2789</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6334, 0.6285, 0.6383, 0.6322, 0.6480 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6361</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:56, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5692</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:56, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1925</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2965</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5630</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:53, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5724</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:52, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1988</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2963</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5747</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:51, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1978</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5744</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3575, 0.3560, 0.3522, 0.3524, 0.3632 | 0.3563, 0.0040</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2401, 0.2392, 0.2389, 0.2386, 0.2445 | 0.2403, 0.0022</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2873, 0.2861, 0.2847, 0.2845, 0.2923 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2870</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6512, 0.6370, 0.6426, 0.6358, 0.6503 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6434</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0064</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>norm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>x_j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.exp(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3578, 0.3582, 0.3537, 0.3610, 0.3630 | 0.3587, 0.0032</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2394, 0.2377, 0.2421, 0.2423, 0.2425 | 0.2408, 0.0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2869, 0.2858, 0.2875, 0.2899, 0.2907 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6540, 0.6347, 0.6462, 0.6478, 0.6495 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6464</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0064</t>
     </r>
   </si>
 </sst>
@@ -6205,8 +7182,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -6308,7 +7286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6330,6 +7308,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6346,6 +7329,1945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>F1 score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LightGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$R$128:$R$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$S$128:$S$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29449999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC4A-C144-A4BA-D639A7ECA92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hyperAttnGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$W$128:$W$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29880000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC4A-C144-A4BA-D639A7ECA92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="217364832"/>
+        <c:axId val="217366544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217364832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217366544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217366544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217364832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NCDG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LightGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$R$128:$R$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$T$128:$T$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65790000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC4A-C144-A4BA-D639A7ECA92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hyperAttnGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$X$128:$X$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66069999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC4A-C144-A4BA-D639A7ECA92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="217364832"/>
+        <c:axId val="217366544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217364832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217366544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217366544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217364832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A5F52D-5F9E-1E18-A5C1-056CCE5B72BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07006CC0-CEE6-EA56-91D2-50BD2959706C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6665,10 +9587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:Y116"/>
+  <dimension ref="B6:AB139"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6862,174 +9784,62 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y54" s="4"/>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="X55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S56" s="3">
-        <v>0</v>
-      </c>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S57" s="3">
-        <v>1</v>
-      </c>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S58" s="3">
-        <v>2</v>
-      </c>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S59" s="3">
-        <v>3</v>
-      </c>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S60" s="3">
-        <v>4</v>
-      </c>
-      <c r="T60" s="5">
-        <v>0.29289999999999999</v>
-      </c>
-      <c r="U60" s="5">
-        <v>0.6552</v>
-      </c>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5">
-        <v>0.29859999999999998</v>
-      </c>
-      <c r="Y60" s="5">
-        <v>0.65780000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="S61" s="3">
-        <v>5</v>
-      </c>
-      <c r="T61" s="5">
-        <v>0.29449999999999998</v>
-      </c>
-      <c r="U61" s="5">
-        <v>0.65790000000000004</v>
-      </c>
-      <c r="V61" s="5">
-        <v>0.29680000000000001</v>
-      </c>
-      <c r="W61" s="5">
-        <v>0.65720000000000001</v>
-      </c>
-      <c r="X61" s="5">
-        <v>0.29880000000000001</v>
-      </c>
-      <c r="Y61" s="5">
-        <v>0.66069999999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>80</v>
       </c>
@@ -7234,43 +10044,350 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R125" s="6"/>
+      <c r="S125" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X125" s="4"/>
+    </row>
+    <row r="126" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="R126" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S126" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T126" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U126" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V126" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W126" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X126" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R127" s="3">
+        <v>0</v>
+      </c>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+    </row>
+    <row r="128" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="R128" s="3">
+        <v>1</v>
+      </c>
+      <c r="S128" s="5">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="T128" s="5">
+        <v>0.6361</v>
+      </c>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="11">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="X128" s="5">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="Y128" s="12">
+        <f>W128-S128</f>
+        <v>8.0999999999999961E-3</v>
+      </c>
+      <c r="Z128" s="13">
+        <f>Y128/S128</f>
+        <v>2.9042667622803862E-2</v>
+      </c>
+      <c r="AA128">
+        <f>X128-T128</f>
+        <v>7.2999999999999732E-3</v>
+      </c>
+      <c r="AB128" s="13">
+        <f>AA128/T128</f>
+        <v>1.1476182990095854E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R129" s="3">
+        <v>2</v>
+      </c>
+      <c r="S129" s="5">
+        <v>0.2883</v>
+      </c>
+      <c r="T129" s="5">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="X129" s="5">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="Y129" s="12">
+        <f>W129-S129</f>
+        <v>3.4000000000000141E-3</v>
+      </c>
+      <c r="Z129" s="13">
+        <f>Y129/S129</f>
+        <v>1.1793270898369802E-2</v>
+      </c>
+      <c r="AA129">
+        <f>X129-T129</f>
+        <v>2.3999999999999577E-3</v>
+      </c>
+      <c r="AB129" s="13">
+        <f>AA129/T129</f>
+        <v>3.7042753511343689E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R130" s="3">
+        <v>3</v>
+      </c>
+      <c r="S130" s="5">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="T130" s="5">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="11">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="X130" s="11">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="Y130" s="12">
+        <f>W130-S130</f>
+        <v>5.3999999999999604E-3</v>
+      </c>
+      <c r="Z130" s="13">
+        <f>Y130/S130</f>
+        <v>1.8582243633860841E-2</v>
+      </c>
+      <c r="AA130">
+        <f>X130-T130</f>
+        <v>5.5000000000000604E-3</v>
+      </c>
+      <c r="AB130" s="13">
+        <f>AA130/T130</f>
+        <v>8.4420567920185114E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R131" s="3">
+        <v>4</v>
+      </c>
+      <c r="S131" s="5">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="T131" s="5">
+        <v>0.6552</v>
+      </c>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="X131" s="5">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="Y131" s="12">
+        <f>W131-S131</f>
+        <v>5.6999999999999829E-3</v>
+      </c>
+      <c r="Z131" s="13">
+        <f>Y131/S131</f>
+        <v>1.9460566746329747E-2</v>
+      </c>
+      <c r="AA131">
+        <f>X131-T131</f>
+        <v>2.6000000000000467E-3</v>
+      </c>
+      <c r="AB131" s="13">
+        <f>AA131/T131</f>
+        <v>3.9682539682540392E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="R132" s="3">
+        <v>5</v>
+      </c>
+      <c r="S132" s="5">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="T132" s="5">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="U132" s="5">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="V132" s="5">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="W132" s="5">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="X132" s="5">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="Y132" s="12">
+        <f>W132-S132</f>
+        <v>4.300000000000026E-3</v>
+      </c>
+      <c r="Z132" s="13">
+        <f>Y132/S132</f>
+        <v>1.4601018675721651E-2</v>
+      </c>
+      <c r="AA132">
+        <f>X132-T132</f>
+        <v>2.7999999999999137E-3</v>
+      </c>
+      <c r="AB132" s="13">
+        <f>AA132/T132</f>
+        <v>4.2559659522722502E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="S125:T125"/>
+    <mergeCell ref="U125:V125"/>
+    <mergeCell ref="W125:X125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:K32"/>
+  <dimension ref="C3:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7409,6 +10526,59 @@
     <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K32" s="2" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -7420,8 +10590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813075B-DF73-6040-86E0-2FC325DA7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBECE7D-4893-6D44-8BCE-F94662A4A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -7176,6 +7176,946 @@
       </rPr>
       <t>, 0.0064</t>
     </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3387, 0.3376, 0.3302, 0.3413, 0.3439 | 0.3383, 0.0046</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2259, 0.2270, 0.2278, 0.2316, 0.2325 | 0.2290, 0.0026</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2711, 0.2715, 0.2696, 0.2760, 0.2774 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2731</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0030</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6230, 0.6194, 0.6318, 0.6288, 0.6301 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6266</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0047</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>norm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>x_j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.pow(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF001080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>attr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).view(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3146, 0.3138, 0.3093, 0.3096, 0.3143 | 0.3123, 0.0024</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2108, 0.2117, 0.2102, 0.2125, 0.2133 | 0.2117, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2524, 0.2528, 0.2503, 0.2520, 0.2541 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2523</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.5949, 0.5919, 0.6022, 0.5887, 0.5970 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0046</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3155, 0.3168, 0.3129, 0.3082, 0.3236 | 0.3154, 0.0050</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2119, 0.2112, 0.2125, 0.2142, 0.2146 | 0.2129, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2535, 0.2534, 0.2531, 0.2527, 0.2581 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2542</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.5947, 0.5863, 0.5950, 0.6005, 0.6135 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0090</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:22, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1594</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5063</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:22, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1606</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2336</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4910</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:23, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1572</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2272</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:18, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:28, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1583</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2369</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5011</t>
+    </r>
+  </si>
+  <si>
+    <t>(rapids-22.12) madmin@gputest-0:~/hyperGCN$ </t>
   </si>
 </sst>
 </file>
@@ -7449,23 +8389,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$S$128:$S$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$S$127:$S$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.25419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.27889999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2883</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.29060000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.29289999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.29449999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -7495,23 +8438,26 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$W$128:$W$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$W$127:$W$132</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0.0000">
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.25230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.28699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.29170000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0000">
+                <c:pt idx="3">
                   <c:v>0.29599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4" formatCode="General">
                   <c:v>0.29859999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="General">
                   <c:v>0.29880000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -7837,23 +8783,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$T$128:$T$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$T$127:$T$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.6361</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.64790000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.65149999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.6552</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.65790000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -7883,23 +8832,26 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$X$128:$X$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$X$127:$X$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.59489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.64339999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.65029999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.0000">
+                <c:pt idx="3" formatCode="0.0000">
                   <c:v>0.65700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.65780000000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.66069999999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -9587,10 +10539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:AB139"/>
+  <dimension ref="B6:AB161"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="L150" sqref="L150"/>
+    <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
+      <selection activeCell="AD137" sqref="AD137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10137,12 +11089,36 @@
       <c r="R127" s="3">
         <v>0</v>
       </c>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
+      <c r="S127" s="5">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="T127" s="5">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="U127" s="5"/>
       <c r="V127" s="5"/>
-      <c r="W127" s="5"/>
-      <c r="X127" s="5"/>
+      <c r="W127" s="5">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="X127" s="5">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="Y127" s="12">
+        <f>W127-S127</f>
+        <v>-1.8999999999999573E-3</v>
+      </c>
+      <c r="Z127" s="13">
+        <f>Y127/S127</f>
+        <v>-7.4744295830053396E-3</v>
+      </c>
+      <c r="AA127">
+        <f>X127-T127</f>
+        <v>-3.0999999999999917E-3</v>
+      </c>
+      <c r="AB127" s="13">
+        <f>AA127/T127</f>
+        <v>-5.1839464882943009E-3</v>
+      </c>
     </row>
     <row r="128" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R128" s="3">
@@ -10368,6 +11344,101 @@
     <row r="139" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -10384,10 +11455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:K46"/>
+  <dimension ref="C3:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10579,6 +11650,34 @@
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K46" s="2" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,20 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBECE7D-4893-6D44-8BCE-F94662A4A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4A289-B5DA-C24A-8021-E2779B8BC92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode" sheetId="3" r:id="rId2"/>
     <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'LightGCN_ml100k - GPU'!$R$128:$R$132</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'LightGCN_ml100k - GPU'!$S$128:$S$132</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="232">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -8116,6 +8112,824 @@
   </si>
   <si>
     <t>(rapids-22.12) madmin@gputest-0:~/hyperGCN$ </t>
+  </si>
+  <si>
+    <t>  Recall: 0.2102, 0.2077, 0.2207, 0.2260, 0.2235 | 0.2176, 0.0073</t>
+  </si>
+  <si>
+    <t>    Prec: 0.1653, 0.1638, 0.1712, 0.1653, 0.1697 | 0.1671, 0.0029</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.1851, 0.1832, 0.1929, 0.1909, 0.1929 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1890</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.4838, 0.4750, 0.5000, 0.4849, 0.4868 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4861</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0080</t>
+    </r>
+  </si>
+  <si>
+    <t>return norm.view(-1, 1) * (x_j * torch.log(attr).view(-1, 1))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>151</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3738, 0.3661, 0.3614, 0.3687, 0.3720 | 0.3684, 0.0044</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2465, 0.2454, 0.2479, 0.2480, 0.2496 | 0.2475, 0.0014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2971, 0.2939, 0.2941, 0.2965, 0.2987 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2961</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6598, 0.6509, 0.6656, 0.6572, 0.6645 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 11:02, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3515</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6375</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 11:08, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3546</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6435</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 11:05, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2368</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3451</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6320</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:44, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3576</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6393</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:50, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2390</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6468</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>151</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3667, 0.3598, 0.3600, 0.3686, 0.3657 | 0.3642, 0.0036</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2459, 0.2427, 0.2469, 0.2486, 0.2478 | 0.2464, 0.0020</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2944, 0.2899, 0.2929, 0.2969, 0.2954 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6543, 0.6502, 0.6510, 0.6550, 0.6643 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0050</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3586, 0.3597, 0.3509, 0.3608, 0.3658 | 0.3592, 0.0048</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2413, 0.2412, 0.2413, 0.2434, 0.2463 | 0.2427, 0.0020</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2885, 0.2888, 0.2860, 0.2907, 0.2944 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2897</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6507, 0.6407, 0.6417, 0.6485, 0.6538 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6471</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0051</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8124,9 +8938,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8198,6 +9012,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8241,18 +9061,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10539,10 +11359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:AB161"/>
+  <dimension ref="B6:AB186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
-      <selection activeCell="AD137" sqref="AD137"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10551,16 +11371,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -11046,39 +11866,39 @@
         <v>171</v>
       </c>
       <c r="R125" s="6"/>
-      <c r="S125" s="4" t="s">
+      <c r="S125" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4" t="s">
+      <c r="T125" s="12"/>
+      <c r="U125" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4" t="s">
+      <c r="V125" s="12"/>
+      <c r="W125" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="X125" s="4"/>
+      <c r="X125" s="12"/>
     </row>
     <row r="126" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R126" s="7" t="s">
+      <c r="R126" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S126" s="9" t="s">
+      <c r="S126" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T126" s="9" t="s">
+      <c r="T126" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U126" s="9" t="s">
+      <c r="U126" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="V126" s="9" t="s">
+      <c r="V126" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W126" s="9" t="s">
+      <c r="W126" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="X126" s="9" t="s">
+      <c r="X126" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11103,20 +11923,20 @@
       <c r="X127" s="5">
         <v>0.59489999999999998</v>
       </c>
-      <c r="Y127" s="12">
-        <f>W127-S127</f>
+      <c r="Y127" s="10">
+        <f t="shared" ref="Y127:Y132" si="0">W127-S127</f>
         <v>-1.8999999999999573E-3</v>
       </c>
-      <c r="Z127" s="13">
-        <f>Y127/S127</f>
+      <c r="Z127" s="11">
+        <f t="shared" ref="Z127:Z132" si="1">Y127/S127</f>
         <v>-7.4744295830053396E-3</v>
       </c>
       <c r="AA127">
-        <f>X127-T127</f>
+        <f t="shared" ref="AA127:AA132" si="2">X127-T127</f>
         <v>-3.0999999999999917E-3</v>
       </c>
-      <c r="AB127" s="13">
-        <f>AA127/T127</f>
+      <c r="AB127" s="11">
+        <f t="shared" ref="AB127:AB132" si="3">AA127/T127</f>
         <v>-5.1839464882943009E-3</v>
       </c>
     </row>
@@ -11132,26 +11952,26 @@
       </c>
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
-      <c r="W128" s="11">
+      <c r="W128" s="9">
         <v>0.28699999999999998</v>
       </c>
       <c r="X128" s="5">
         <v>0.64339999999999997</v>
       </c>
-      <c r="Y128" s="12">
-        <f>W128-S128</f>
+      <c r="Y128" s="10">
+        <f t="shared" si="0"/>
         <v>8.0999999999999961E-3</v>
       </c>
-      <c r="Z128" s="13">
-        <f>Y128/S128</f>
+      <c r="Z128" s="11">
+        <f t="shared" si="1"/>
         <v>2.9042667622803862E-2</v>
       </c>
       <c r="AA128">
-        <f>X128-T128</f>
+        <f t="shared" si="2"/>
         <v>7.2999999999999732E-3</v>
       </c>
-      <c r="AB128" s="13">
-        <f>AA128/T128</f>
+      <c r="AB128" s="11">
+        <f t="shared" si="3"/>
         <v>1.1476182990095854E-2</v>
       </c>
     </row>
@@ -11176,20 +11996,20 @@
       <c r="X129" s="5">
         <v>0.65029999999999999</v>
       </c>
-      <c r="Y129" s="12">
-        <f>W129-S129</f>
+      <c r="Y129" s="10">
+        <f t="shared" si="0"/>
         <v>3.4000000000000141E-3</v>
       </c>
-      <c r="Z129" s="13">
-        <f>Y129/S129</f>
+      <c r="Z129" s="11">
+        <f t="shared" si="1"/>
         <v>1.1793270898369802E-2</v>
       </c>
       <c r="AA129">
-        <f>X129-T129</f>
+        <f t="shared" si="2"/>
         <v>2.3999999999999577E-3</v>
       </c>
-      <c r="AB129" s="13">
-        <f>AA129/T129</f>
+      <c r="AB129" s="11">
+        <f t="shared" si="3"/>
         <v>3.7042753511343689E-3</v>
       </c>
     </row>
@@ -11208,26 +12028,26 @@
       </c>
       <c r="U130" s="5"/>
       <c r="V130" s="5"/>
-      <c r="W130" s="11">
+      <c r="W130" s="9">
         <v>0.29599999999999999</v>
       </c>
-      <c r="X130" s="11">
+      <c r="X130" s="9">
         <v>0.65700000000000003</v>
       </c>
-      <c r="Y130" s="12">
-        <f>W130-S130</f>
+      <c r="Y130" s="10">
+        <f t="shared" si="0"/>
         <v>5.3999999999999604E-3</v>
       </c>
-      <c r="Z130" s="13">
-        <f>Y130/S130</f>
+      <c r="Z130" s="11">
+        <f t="shared" si="1"/>
         <v>1.8582243633860841E-2</v>
       </c>
       <c r="AA130">
-        <f>X130-T130</f>
+        <f t="shared" si="2"/>
         <v>5.5000000000000604E-3</v>
       </c>
-      <c r="AB130" s="13">
-        <f>AA130/T130</f>
+      <c r="AB130" s="11">
+        <f t="shared" si="3"/>
         <v>8.4420567920185114E-3</v>
       </c>
     </row>
@@ -11252,20 +12072,20 @@
       <c r="X131" s="5">
         <v>0.65780000000000005</v>
       </c>
-      <c r="Y131" s="12">
-        <f>W131-S131</f>
+      <c r="Y131" s="10">
+        <f t="shared" si="0"/>
         <v>5.6999999999999829E-3</v>
       </c>
-      <c r="Z131" s="13">
-        <f>Y131/S131</f>
+      <c r="Z131" s="11">
+        <f t="shared" si="1"/>
         <v>1.9460566746329747E-2</v>
       </c>
       <c r="AA131">
-        <f>X131-T131</f>
+        <f t="shared" si="2"/>
         <v>2.6000000000000467E-3</v>
       </c>
-      <c r="AB131" s="13">
-        <f>AA131/T131</f>
+      <c r="AB131" s="11">
+        <f t="shared" si="3"/>
         <v>3.9682539682540392E-3</v>
       </c>
     </row>
@@ -11294,20 +12114,20 @@
       <c r="X132" s="5">
         <v>0.66069999999999995</v>
       </c>
-      <c r="Y132" s="12">
-        <f>W132-S132</f>
+      <c r="Y132" s="10">
+        <f t="shared" si="0"/>
         <v>4.300000000000026E-3</v>
       </c>
-      <c r="Z132" s="13">
-        <f>Y132/S132</f>
+      <c r="Z132" s="11">
+        <f t="shared" si="1"/>
         <v>1.4601018675721651E-2</v>
       </c>
       <c r="AA132">
-        <f>X132-T132</f>
+        <f t="shared" si="2"/>
         <v>2.7999999999999137E-3</v>
       </c>
-      <c r="AB132" s="13">
-        <f>AA132/T132</f>
+      <c r="AB132" s="11">
+        <f t="shared" si="3"/>
         <v>4.2559659522722502E-3</v>
       </c>
     </row>
@@ -11439,6 +12259,96 @@
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -11455,10 +12365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:K52"/>
+  <dimension ref="C3:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11494,31 +12404,24 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G9" s="8"/>
       <c r="K9" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G10" s="8"/>
-    </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="8"/>
       <c r="K11" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G12" s="8"/>
       <c r="K12" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G13" s="8"/>
       <c r="K13" s="2" t="s">
         <v>134</v>
       </c>
@@ -11539,7 +12442,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>142</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -11567,7 +12470,7 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -11600,7 +12503,7 @@
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>182</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -11653,31 +12556,87 @@
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>191</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K49" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K50" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K51" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K52" s="2" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C54" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4A289-B5DA-C24A-8021-E2779B8BC92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C49C2-70D8-424B-AC98-C74CABA9B5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="237">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -8930,6 +8930,63 @@
       </rPr>
       <t>, 0.0051</t>
     </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3492, 0.3543, 0.3495, 0.3526, 0.3587 | 0.3529, 0.0035</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2346, 0.2385, 0.2374, 0.2383, 0.2406 | 0.2379, 0.0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2806, 0.2851, 0.2827, 0.2844, 0.2880 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2842</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6375, 0.6384, 0.6417, 0.6391, 0.6486 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6411</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0040</t>
+    </r>
+  </si>
+  <si>
+    <t>return norm.view(-1, 1) * (x_j * F.leaky_relu(attr).view(-1, 1))</t>
   </si>
 </sst>
 </file>
@@ -12365,10 +12422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:K65"/>
+  <dimension ref="C3:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:I61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12634,9 +12691,42 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K65" s="2" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C68" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C49C2-70D8-424B-AC98-C74CABA9B5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB21F1B-52E9-8A47-AA87-95D2AA64A31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="253">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -8987,6 +8987,388 @@
   </si>
   <si>
     <t>return norm.view(-1, 1) * (x_j * F.leaky_relu(attr).view(-1, 1))</t>
+  </si>
+  <si>
+    <t>  Recall: 0.3631, 0.3602, 0.3525, 0.3580, 0.3657 | 0.3599, 0.0045</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2440, 0.2427, 0.2397, 0.2404, 0.2446 | 0.2423, 0.0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2918, 0.2900, 0.2854, 0.2877, 0.2931 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2896</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6507, 0.6400, 0.6408, 0.6421, 0.6524 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6452</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0053</t>
+    </r>
+  </si>
+  <si>
+    <t>(rapids-22.12) madmin@gputest-0:~/hyperGCN$ python main.py --layers=6 --epochs=151 --u_sim_top_k=70 --i_sim_top_k=20 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn</t>
+  </si>
+  <si>
+    <t>Device: cuda</t>
+  </si>
+  <si>
+    <t>Loading results from models/LightGCN_bi_6_151_experiment_results.pkl...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:59, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3529</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6352</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:48, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2416</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3582</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6411</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:42, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3528</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6345</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 11:04, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3499</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6345</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 11:20, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2372</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6515</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3675, 0.3654, 0.3583, 0.3646, 0.3687 | 0.3649, 0.0036</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2475, 0.2444, 0.2458, 0.2457, 0.2451 | 0.2457, 0.0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2958, 0.2929, 0.2916, 0.2936, 0.2944 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2937</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6535, 0.6510, 0.6488, 0.6552, 0.6652 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6547</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0057</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11416,10 +11798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:AB186"/>
+  <dimension ref="B6:AB215"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J185" sqref="J185"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193:B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12406,6 +12788,111 @@
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -12422,10 +12909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:K73"/>
+  <dimension ref="C3:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12727,6 +13214,34 @@
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K73" s="2" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C75" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB21F1B-52E9-8A47-AA87-95D2AA64A31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B3360-9189-6D45-ABB0-7BD908ED9E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="320">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -9368,6 +9368,3105 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0057</t>
+    </r>
+  </si>
+  <si>
+    <t>Loading results from models/LightGCN_bi_5_151_experiment_results.pkl...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>151</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3710, 0.3677, 0.3617, 0.3628, 0.3710 | 0.3668, 0.0040</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2476, 0.2473, 0.2478, 0.2457, 0.2490 | 0.2475, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2970, 0.2957, 0.2941, 0.2930, 0.2980 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2956</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6591, 0.6482, 0.6618, 0.6535, 0.6626 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6570</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2473</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3677</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6584</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:23, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2462</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3676</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6546</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:18, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2516</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3665</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6535</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:26, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2491</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3656</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6578</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 10:33, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2491</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3712</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6568</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>151</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3751, 0.3727, 0.3665, 0.3706, 0.3754 | 0.3721, 0.0033</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2504, 0.2504, 0.2516, 0.2517, 0.2508 | 0.2510, 0.0006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.3003, 0.2996, 0.2984, 0.2998, 0.3007 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6672, 0.6553, 0.6609, 0.6604, 0.6617 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0038</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>151</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3739, 0.3665, 0.3620, 0.3667, 0.3706 | 0.3679, 0.0040</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2478, 0.2448, 0.2486, 0.2477, 0.2479 | 0.2474, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2981, 0.2936, 0.2948, 0.2956, 0.2971 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2958</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6627, 0.6509, 0.6688, 0.6565, 0.6630 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6604</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0061</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 27:28, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3730</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6659</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 27:38, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2452</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3654</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6514</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 27:44, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3628</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6598</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 27:50, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3674</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6563</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:06:56, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3690</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6581</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>151</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3765, 0.3700, 0.3651, 0.3720, 0.3746 | 0.3716, 0.0039</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2527, 0.2490, 0.2514, 0.2497, 0.2525 | 0.2511, 0.0015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.3024, 0.2977, 0.2978, 0.2989, 0.3016 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2997</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6724, 0.6528, 0.6621, 0.6588, 0.6642 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6621</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0064</t>
+    </r>
+  </si>
+  <si>
+    <t>(rapids-22.12) madmin@gputest-0:~/hyperGCN$ python main.py --layers=6 --epochs=201 --u_sim_top_k=70 --i_sim_top_k=20 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges 132032: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 12:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2425</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3656</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6480</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges 132032: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 12:45, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2405</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6441</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges 132032: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 13:03, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2453</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3608</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6570</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges 132032: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 12:52, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2433</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3624</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6474</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges 132032: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 12:53, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2433</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3661</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6498</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>201</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3749, 0.3652, 0.3643, 0.3676, 0.3722 | 0.3688, 0.0041</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2470, 0.2460, 0.2490, 0.2475, 0.2485 | 0.2476, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2978, 0.2939, 0.2958, 0.2959, 0.2980 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2963</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6624, 0.6514, 0.6639, 0.6568, 0.6639 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6597</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0049</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 14:51, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3743</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6601</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 14:43, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2487</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3721</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6561</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 15:00, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2513</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3667</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6607</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 14:57, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3656</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6558</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 14:48, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2507</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6590</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>201</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3750, 0.3734, 0.3691, 0.3702, 0.3777 | 0.3731, 0.0031</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2515, 0.2508, 0.2520, 0.2502, 0.2518 | 0.2513, 0.0007</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.3011, 0.3001, 0.2995, 0.2986, 0.3022 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6701, 0.6617, 0.6652, 0.6618, 0.6649 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6647</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0031</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>301</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3702, 0.3673, 0.3607, 0.3688, 0.3709 | 0.3676, 0.0037</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2461, 0.2464, 0.2490, 0.2472, 0.2488 | 0.2475, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2956, 0.2950, 0.2946, 0.2960, 0.2978 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2958</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6595, 0.6543, 0.6625, 0.6593, 0.6629 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6597</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0031</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 22:56, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2473</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3713</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6521</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 22:43, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2460</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3669</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6502</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 22:58, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2489</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3697</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6556</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 22:42, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2481</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3681</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6523</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 22:45, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2488</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3709</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6480</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>301</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3759, 0.3741, 0.3719, 0.3721, 0.3771 | 0.3742, 0.0020</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2506, 0.2503, 0.2539, 0.2511, 0.2535 | 0.2519, 0.0015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.3007, 0.2999, 0.3018, 0.2998, 0.3032 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6694, 0.6601, 0.6642, 0.6628, 0.6639 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6641</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0030</t>
     </r>
   </si>
 </sst>
@@ -9508,10 +12607,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9624,34 +12723,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$R$128:$R$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$O$278:$O$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$S$127:$S$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$P$278:$P$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.25419999999999998</c:v>
                 </c:pt>
@@ -9669,6 +12774,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.29449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29630000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9695,12 +12803,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$O$278:$O$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$W$127:$W$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$T$278:$T$284</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0.25230000000000002</c:v>
                 </c:pt>
@@ -9718,6 +12856,9 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0.29880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.30030000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10018,34 +13159,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$R$128:$R$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$O$278:$O$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$T$127:$T$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$Q$278:$Q$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.59799999999999998</c:v>
                 </c:pt>
@@ -10063,6 +13210,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.65790000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65969999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10089,12 +13239,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$O$278:$O$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LightGCN_ml100k - GPU'!$X$127:$X$132</c:f>
+              <c:f>'LightGCN_ml100k - GPU'!$U$278:$U$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.59489999999999998</c:v>
                 </c:pt>
@@ -10113,12 +13293,863 @@
                 <c:pt idx="5">
                   <c:v>0.66069999999999995</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66469999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC4A-C144-A4BA-D639A7ECA92F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="217364832"/>
+        <c:axId val="217366544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217364832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217366544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217366544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217364832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>F1 score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LightGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$O$279:$O$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$P$279:$P$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29630000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8343-E548-A111-B00E9B2B4D6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hyperAttnGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$O$279:$O$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$T$279:$T$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30030000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8343-E548-A111-B00E9B2B4D6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="217364832"/>
+        <c:axId val="217366544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="217364832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217366544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217366544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217364832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NCDG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LightGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$O$279:$O$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$Q$279:$Q$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65790000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65969999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46DD-8841-8C35-8D3AA8D1B0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hyperAttnGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$O$279:$O$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'LightGCN_ml100k - GPU'!$U$279:$U$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.64339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66469999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46DD-8841-8C35-8D3AA8D1B0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10359,6 +14390,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11404,20 +15515,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11444,16 +16561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11473,6 +16590,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44FC593-4B05-BF42-BBA3-1178EB4408EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CA12BB-A38B-9B45-9DF2-C115118F2040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11798,10 +16991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
-  <dimension ref="B6:AB215"/>
+  <dimension ref="B6:Y350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193:B215"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="P350" sqref="P350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11810,16 +17003,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -12255,372 +17448,132 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R125" s="6"/>
-      <c r="S125" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T125" s="12"/>
-      <c r="U125" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V125" s="12"/>
-      <c r="W125" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="X125" s="12"/>
-    </row>
-    <row r="126" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R126" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S126" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="T126" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="U126" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="V126" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W126" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="X126" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R127" s="3">
-        <v>0</v>
-      </c>
-      <c r="S127" s="5">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="T127" s="5">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
-      <c r="W127" s="5">
-        <v>0.25230000000000002</v>
-      </c>
-      <c r="X127" s="5">
-        <v>0.59489999999999998</v>
-      </c>
-      <c r="Y127" s="10">
-        <f t="shared" ref="Y127:Y132" si="0">W127-S127</f>
-        <v>-1.8999999999999573E-3</v>
-      </c>
-      <c r="Z127" s="11">
-        <f t="shared" ref="Z127:Z132" si="1">Y127/S127</f>
-        <v>-7.4744295830053396E-3</v>
-      </c>
-      <c r="AA127">
-        <f t="shared" ref="AA127:AA132" si="2">X127-T127</f>
-        <v>-3.0999999999999917E-3</v>
-      </c>
-      <c r="AB127" s="11">
-        <f t="shared" ref="AB127:AB132" si="3">AA127/T127</f>
-        <v>-5.1839464882943009E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R128" s="3">
-        <v>1</v>
-      </c>
-      <c r="S128" s="5">
-        <v>0.27889999999999998</v>
-      </c>
-      <c r="T128" s="5">
-        <v>0.6361</v>
-      </c>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="9">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="X128" s="5">
-        <v>0.64339999999999997</v>
-      </c>
-      <c r="Y128" s="10">
-        <f t="shared" si="0"/>
-        <v>8.0999999999999961E-3</v>
-      </c>
-      <c r="Z128" s="11">
-        <f t="shared" si="1"/>
-        <v>2.9042667622803862E-2</v>
-      </c>
-      <c r="AA128">
-        <f t="shared" si="2"/>
-        <v>7.2999999999999732E-3</v>
-      </c>
-      <c r="AB128" s="11">
-        <f t="shared" si="3"/>
-        <v>1.1476182990095854E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R129" s="3">
-        <v>2</v>
-      </c>
-      <c r="S129" s="5">
-        <v>0.2883</v>
-      </c>
-      <c r="T129" s="5">
-        <v>0.64790000000000003</v>
-      </c>
-      <c r="U129" s="5"/>
-      <c r="V129" s="5"/>
-      <c r="W129" s="5">
-        <v>0.29170000000000001</v>
-      </c>
-      <c r="X129" s="5">
-        <v>0.65029999999999999</v>
-      </c>
-      <c r="Y129" s="10">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000141E-3</v>
-      </c>
-      <c r="Z129" s="11">
-        <f t="shared" si="1"/>
-        <v>1.1793270898369802E-2</v>
-      </c>
-      <c r="AA129">
-        <f t="shared" si="2"/>
-        <v>2.3999999999999577E-3</v>
-      </c>
-      <c r="AB129" s="11">
-        <f t="shared" si="3"/>
-        <v>3.7042753511343689E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="R130" s="3">
-        <v>3</v>
-      </c>
-      <c r="S130" s="5">
-        <v>0.29060000000000002</v>
-      </c>
-      <c r="T130" s="5">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="9">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="X130" s="9">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="Y130" s="10">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999604E-3</v>
-      </c>
-      <c r="Z130" s="11">
-        <f t="shared" si="1"/>
-        <v>1.8582243633860841E-2</v>
-      </c>
-      <c r="AA130">
-        <f t="shared" si="2"/>
-        <v>5.5000000000000604E-3</v>
-      </c>
-      <c r="AB130" s="11">
-        <f t="shared" si="3"/>
-        <v>8.4420567920185114E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R131" s="3">
-        <v>4</v>
-      </c>
-      <c r="S131" s="5">
-        <v>0.29289999999999999</v>
-      </c>
-      <c r="T131" s="5">
-        <v>0.6552</v>
-      </c>
-      <c r="U131" s="5"/>
-      <c r="V131" s="5"/>
-      <c r="W131" s="5">
-        <v>0.29859999999999998</v>
-      </c>
-      <c r="X131" s="5">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="Y131" s="10">
-        <f t="shared" si="0"/>
-        <v>5.6999999999999829E-3</v>
-      </c>
-      <c r="Z131" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9460566746329747E-2</v>
-      </c>
-      <c r="AA131">
-        <f t="shared" si="2"/>
-        <v>2.6000000000000467E-3</v>
-      </c>
-      <c r="AB131" s="11">
-        <f t="shared" si="3"/>
-        <v>3.9682539682540392E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="R132" s="3">
-        <v>5</v>
-      </c>
-      <c r="S132" s="5">
-        <v>0.29449999999999998</v>
-      </c>
-      <c r="T132" s="5">
-        <v>0.65790000000000004</v>
-      </c>
-      <c r="U132" s="5">
-        <v>0.29680000000000001</v>
-      </c>
-      <c r="V132" s="5">
-        <v>0.65720000000000001</v>
-      </c>
-      <c r="W132" s="5">
-        <v>0.29880000000000001</v>
-      </c>
-      <c r="X132" s="5">
-        <v>0.66069999999999995</v>
-      </c>
-      <c r="Y132" s="10">
-        <f t="shared" si="0"/>
-        <v>4.300000000000026E-3</v>
-      </c>
-      <c r="Z132" s="11">
-        <f t="shared" si="1"/>
-        <v>1.4601018675721651E-2</v>
-      </c>
-      <c r="AA132">
-        <f t="shared" si="2"/>
-        <v>2.7999999999999137E-3</v>
-      </c>
-      <c r="AB132" s="11">
-        <f t="shared" si="3"/>
-        <v>4.2559659522722502E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>199</v>
       </c>
@@ -12895,12 +17848,706 @@
         <v>252</v>
       </c>
     </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K241">
+        <f>0.6611</f>
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="L241">
+        <v>0.29980000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K242" s="10">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="L242">
+        <f>0.2956</f>
+        <v>0.29559999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K243">
+        <f>K241-K242</f>
+        <v>4.0999999999999925E-3</v>
+      </c>
+      <c r="L243">
+        <f>L241-L242</f>
+        <v>4.200000000000037E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K244" s="1">
+        <f>K243/K242</f>
+        <v>6.2404870624048593E-3</v>
+      </c>
+      <c r="L244" s="1">
+        <f>L243/L242</f>
+        <v>1.4208389715832333E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B248" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B249" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B250" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B251" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B252" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B253" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B254" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B255" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B256" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="273" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B273" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="274" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B274" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="276" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O276" s="6"/>
+      <c r="P276" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q276" s="13"/>
+      <c r="R276" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S276" s="13"/>
+      <c r="T276" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U276" s="13"/>
+    </row>
+    <row r="277" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O277" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P277" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q277" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R277" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S277" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T277" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U277" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="278" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O278" s="3">
+        <v>0</v>
+      </c>
+      <c r="P278" s="5">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="Q278" s="5">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="5">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="U278" s="5">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="V278" s="10">
+        <f t="shared" ref="V278:V284" si="0">T278-P278</f>
+        <v>-1.8999999999999573E-3</v>
+      </c>
+      <c r="W278" s="11">
+        <f t="shared" ref="W278:W284" si="1">V278/P278</f>
+        <v>-7.4744295830053396E-3</v>
+      </c>
+      <c r="X278">
+        <f t="shared" ref="X278:X284" si="2">U278-Q278</f>
+        <v>-3.0999999999999917E-3</v>
+      </c>
+      <c r="Y278" s="11">
+        <f t="shared" ref="Y278:Y284" si="3">X278/Q278</f>
+        <v>-5.1839464882943009E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O279" s="3">
+        <v>1</v>
+      </c>
+      <c r="P279" s="5">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="Q279" s="5">
+        <v>0.6361</v>
+      </c>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="U279" s="5">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="V279" s="10">
+        <f t="shared" si="0"/>
+        <v>8.0999999999999961E-3</v>
+      </c>
+      <c r="W279" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9042667622803862E-2</v>
+      </c>
+      <c r="X279">
+        <f t="shared" si="2"/>
+        <v>7.2999999999999732E-3</v>
+      </c>
+      <c r="Y279" s="11">
+        <f t="shared" si="3"/>
+        <v>1.1476182990095854E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="K280">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="L280">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="O280" s="3">
+        <v>2</v>
+      </c>
+      <c r="P280" s="5">
+        <v>0.2883</v>
+      </c>
+      <c r="Q280" s="5">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="5">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="U280" s="5">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="V280" s="10">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000141E-3</v>
+      </c>
+      <c r="W280" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1793270898369802E-2</v>
+      </c>
+      <c r="X280">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999577E-3</v>
+      </c>
+      <c r="Y280" s="11">
+        <f t="shared" si="3"/>
+        <v>3.7042753511343689E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="K281">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="L281">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="O281" s="3">
+        <v>3</v>
+      </c>
+      <c r="P281" s="5">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="Q281" s="5">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="R281" s="5"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="9">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="U281" s="9">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="V281" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999604E-3</v>
+      </c>
+      <c r="W281" s="11">
+        <f t="shared" si="1"/>
+        <v>1.8582243633860841E-2</v>
+      </c>
+      <c r="X281">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000604E-3</v>
+      </c>
+      <c r="Y281" s="11">
+        <f t="shared" si="3"/>
+        <v>8.4420567920185114E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="K282">
+        <f>K280-K281</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="L282">
+        <f>L280-L281</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="O282" s="3">
+        <v>4</v>
+      </c>
+      <c r="P282" s="5">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="Q282" s="5">
+        <v>0.6552</v>
+      </c>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="5">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="U282" s="5">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="V282" s="10">
+        <f t="shared" si="0"/>
+        <v>5.6999999999999829E-3</v>
+      </c>
+      <c r="W282" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9460566746329747E-2</v>
+      </c>
+      <c r="X282">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000467E-3</v>
+      </c>
+      <c r="Y282" s="11">
+        <f t="shared" si="3"/>
+        <v>3.9682539682540392E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="K283" s="1">
+        <f>K282/K281</f>
+        <v>7.5792026678793466E-3</v>
+      </c>
+      <c r="L283" s="1">
+        <f>L282/L281</f>
+        <v>1.349983125210936E-2</v>
+      </c>
+      <c r="O283" s="3">
+        <v>5</v>
+      </c>
+      <c r="P283" s="5">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="Q283" s="5">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="R283" s="5">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="S283" s="5">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="T283" s="5">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="U283" s="5">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="V283" s="10">
+        <f t="shared" si="0"/>
+        <v>4.300000000000026E-3</v>
+      </c>
+      <c r="W283" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4601018675721651E-2</v>
+      </c>
+      <c r="X283">
+        <f t="shared" si="2"/>
+        <v>2.7999999999999137E-3</v>
+      </c>
+      <c r="Y283" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2559659522722502E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O284" s="3">
+        <v>6</v>
+      </c>
+      <c r="P284" s="5">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="Q284" s="5">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="T284" s="5">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="U284" s="5">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="V284" s="10">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="W284" s="11">
+        <f t="shared" si="1"/>
+        <v>1.349983125210936E-2</v>
+      </c>
+      <c r="X284" s="10">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="Y284" s="11">
+        <f t="shared" si="3"/>
+        <v>7.5792026678793466E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B329" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B331" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B333" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B335" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B337" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="338" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B338" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="339" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B339" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="340" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B340" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="341" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B341" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="342" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B342" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B343" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="344" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B344" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="345" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B345" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="346" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B346" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="347" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B347" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="349" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K349">
+        <f>0.6641</f>
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="L349">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="M349">
+        <f>K349-L349</f>
+        <v>4.4000000000000705E-3</v>
+      </c>
+      <c r="N349" s="11">
+        <f>M349/L349</f>
+        <v>6.6696983477339258E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K350">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="L350">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="M350">
+        <f>K350-L350</f>
+        <v>5.2999999999999714E-3</v>
+      </c>
+      <c r="N350" s="11">
+        <f>M350/L350</f>
+        <v>1.7917511832319037E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="S125:T125"/>
-    <mergeCell ref="U125:V125"/>
-    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="P276:Q276"/>
+    <mergeCell ref="R276:S276"/>
+    <mergeCell ref="T276:U276"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13128,7 +18775,7 @@
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>212</v>
       </c>
       <c r="K54" s="2" t="s">
@@ -13184,7 +18831,7 @@
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>236</v>
       </c>
       <c r="K68" s="2" t="s">
@@ -13251,10 +18898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:W103"/>
+  <dimension ref="B4:W133"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="Q132" sqref="Q132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13708,6 +19355,141 @@
         <v>117</v>
       </c>
     </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <f>0.6621</f>
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="L130">
+        <f>0.2997</f>
+        <v>0.29970000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <f>0.6604</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="L131">
+        <f>0.2958</f>
+        <v>0.29580000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <f>K130-K131</f>
+        <v>1.7000000000000348E-3</v>
+      </c>
+      <c r="L132">
+        <f>L130-L131</f>
+        <v>3.9000000000000146E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K133" s="11">
+        <f>K132/K131</f>
+        <v>2.5741974560872728E-3</v>
+      </c>
+      <c r="L133" s="11">
+        <f>L132/L131</f>
+        <v>1.3184584178499034E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B3360-9189-6D45-ABB0-7BD908ED9E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD9CF3-7EED-8442-A881-5BF3163B3F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
-    <sheet name="AttnMode" sheetId="3" r:id="rId2"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId3"/>
+    <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId4"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="487">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -12467,6 +12469,7765 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0030</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: raw | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3530, 0.3541, 0.3468, 0.3550, 0.3560 | 0.3530, 0.0032</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2378, 0.2383, 0.2382, 0.2414, 0.2370 | 0.2385, 0.0015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2842, 0.2849, 0.2824, 0.2874, 0.2845 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2847</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6389, 0.6311, 0.6478, 0.6422, 0.6497 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6419</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0067</t>
+    </r>
+  </si>
+  <si>
+    <t>(rapids-22.12) madmin@gputest-0:~/hyperGCN$ python main.py --layers=1 --epochs=31 --u_sim_top_k=70 --i_sim_top_k=20 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn --weight_mode=none</t>
+  </si>
+  <si>
+    <t>Loading results from models/LightGCN_bi_1_31_experiment_results.pkl...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3471, 0.3482, 0.3427, 0.3450, 0.3553 | 0.3477, 0.0043</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2324, 0.2338, 0.2343, 0.2334, 0.2376 | 0.2343, 0.0018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2784, 0.2798, 0.2783, 0.2784, 0.2847 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2799</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6323, 0.6303, 0.6407, 0.6345, 0.6441 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3630, 0.3556, 0.3531, 0.3588, 0.3632 | 0.3587, 0.0040</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2424, 0.2392, 0.2409, 0.2411, 0.2439 | 0.2415, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2907, 0.2860, 0.2864, 0.2884, 0.2918 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2887</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6503, 0.6401, 0.6455, 0.6429, 0.6510 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6460</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: exp | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3648, 0.3552, 0.3568, 0.3578, 0.3629 | 0.3595, 0.0037</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2435, 0.2398, 0.2435, 0.2430, 0.2407 | 0.2421, 0.0015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2921, 0.2863, 0.2895, 0.2894, 0.2894 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2893</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6553, 0.6369, 0.6455, 0.6426, 0.6516 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6464</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0065</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3518, 0.3564, 0.3415, 0.3543, 0.3581 | 0.3524, 0.0059</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2361, 0.2372, 0.2368, 0.2390, 0.2392 | 0.2377, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2826, 0.2849, 0.2797, 0.2854, 0.2868 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2839</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6406, 0.6338, 0.6405, 0.6429, 0.6500 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6416</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>251</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3786, 0.3724, 0.3653, 0.3718, 0.3783 | 0.3733, 0.0049</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2532, 0.2518, 0.2524, 0.2518, 0.2533 | 0.2525, 0.0007</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.3035, 0.3004, 0.2985, 0.3002, 0.3034 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6698, 0.6566, 0.6641, 0.6621, 0.6617 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6629</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0043</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>251</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3731, 0.3691, 0.3586, 0.3668, 0.3693 | 0.3674, 0.0048</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2474, 0.2451, 0.2480, 0.2467, 0.2480 | 0.2470, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2975, 0.2946, 0.2933, 0.2950, 0.2968 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2954</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6620, 0.6502, 0.6668, 0.6586, 0.6645 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6604</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0058</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 46:49, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2482</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3710</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6606</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 47:00, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2462</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3642</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6524</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 55:40, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3651</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6577</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 57:23, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2483</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3662</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6551</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 46:41, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3729</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6540</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3113, 0.3100, 0.3129, 0.3157, 0.3196 | 0.3139, 0.0034</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2089, 0.2084, 0.2112, 0.2118, 0.2133 | 0.2107, 0.0018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2500, 0.2493, 0.2522, 0.2535, 0.2559 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2522</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.5901, 0.5869, 0.6051, 0.6012, 0.6018 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5970</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0072</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5380</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1797</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2732</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5343</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1847</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2652</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5536</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1784</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2621</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5396</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1833</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5493</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3197, 0.3123, 0.3078, 0.3100, 0.3202 | 0.3140, 0.0051</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2153, 0.2103, 0.2097, 0.2116, 0.2172 | 0.2128, 0.0029</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2573, 0.2513, 0.2494, 0.2516, 0.2589 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2537</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0037</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.5949, 0.5914, 0.6037, 0.5941, 0.6084 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5985</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0064</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: raw | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3138, 0.3151, 0.3123, 0.3120, 0.3137 | 0.3134, 0.0011</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2116, 0.2109, 0.2087, 0.2136, 0.2134 | 0.2116, 0.0018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2528, 0.2527, 0.2502, 0.2535, 0.2540 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2526</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.5946, 0.5894, 0.5992, 0.5910, 0.5925 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5933</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: exp | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3198, 0.3117, 0.3149, 0.3104, 0.3147 | 0.3143, 0.0032</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2128, 0.2090, 0.2133, 0.2122, 0.2101 | 0.2115, 0.0017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2555, 0.2502, 0.2543, 0.2521, 0.2520 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2528</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.5961, 0.5988, 0.6051, 0.5909, 0.6012 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0048</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3518, 0.3470, 0.3480, 0.3472, 0.3509 | 0.3490, 0.0020</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2322, 0.2314, 0.2376, 0.2355, 0.2363 | 0.2346, 0.0024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2798, 0.2777, 0.2824, 0.2806, 0.2824 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2806</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6337, 0.6323, 0.6476, 0.6365, 0.6380 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6376</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:54, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2086</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3136</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5872</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:00, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5866</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:59, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2098</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3097</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5934</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:02, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3157</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5929</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:57, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3188</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5898</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3648, 0.3557, 0.3535, 0.3602, 0.3562 | 0.3581, 0.0040</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2412, 0.2375, 0.2424, 0.2403, 0.2403 | 0.2403, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2904, 0.2848, 0.2876, 0.2883, 0.2870 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2876</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6482, 0.6411, 0.6453, 0.6457, 0.6486 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6458</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3525, 0.3455, 0.3424, 0.3430, 0.3509 | 0.3469, 0.0041</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2335, 0.2340, 0.2354, 0.2327, 0.2352 | 0.2342, 0.0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2809, 0.2790, 0.2790, 0.2773, 0.2816 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2796</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6335, 0.6244, 0.6431, 0.6250, 0.6366 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6325</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0071</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 01:44, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2264</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6223</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 01:45, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6109</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 01:46, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2275</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3320</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6203</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 01:48, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2277</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3356</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6188</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 01:49, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2271</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3407</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6181</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: none | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3579, 0.3551, 0.3517, 0.3597, 0.3586 | 0.3566, 0.0029</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2393, 0.2396, 0.2418, 0.2422, 0.2406 | 0.2407, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2869, 0.2861, 0.2866, 0.2895, 0.2880 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2874</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6500, 0.6423, 0.6406, 0.6455, 0.6472 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6451</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>raw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3555, 0.3522, 0.3447, 0.3507, 0.3564 | 0.3519, 0.0042</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2371, 0.2361, 0.2352, 0.2387, 0.2384 | 0.2371, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2845, 0.2827, 0.2796, 0.2840, 0.2857 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2833</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6440, 0.6383, 0.6422, 0.6384, 0.6491 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0040</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: raw | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3485, 0.3562, 0.3477, 0.3552, 0.3573 | 0.3530, 0.0040</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2353, 0.2363, 0.2361, 0.2409, 0.2401 | 0.2377, 0.0023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2810, 0.2841, 0.2812, 0.2871, 0.2872 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2841</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6347, 0.6391, 0.6400, 0.6352, 0.6463 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3663, 0.3561, 0.3538, 0.3595, 0.3597 | 0.3591, 0.0042</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2408, 0.2396, 0.2407, 0.2432, 0.2428 | 0.2414, 0.0014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2906, 0.2865, 0.2865, 0.2902, 0.2899 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2887</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6568, 0.6370, 0.6481, 0.6412, 0.6466 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6459</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: exp | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3637, 0.3567, 0.3569, 0.3571, 0.3606 | 0.3590, 0.0028</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2419, 0.2400, 0.2436, 0.2410, 0.2428 | 0.2419, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2906, 0.2869, 0.2896, 0.2878, 0.2902 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2890</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6501, 0.6397, 0.6486, 0.6452, 0.6494 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6466</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0038</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3607, 0.3593, 0.3505, 0.3566, 0.3657 | 0.3586, 0.0050</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2402, 0.2402, 0.2409, 0.2421, 0.2432 | 0.2413, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2884, 0.2879, 0.2855, 0.2884, 0.2921 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2885</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6512, 0.6442, 0.6508, 0.6461, 0.6504 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:20, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3440</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6280</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:31, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6317</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2361</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3468</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6267</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:39, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2361</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 04:32, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6339</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3643, 0.3626, 0.3606, 0.3620, 0.3702 | 0.3639, 0.0033</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2447, 0.2435, 0.2466, 0.2462, 0.2464 | 0.2455, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2928, 0.2914, 0.2929, 0.2931, 0.2959 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2932</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6557, 0.6480, 0.6517, 0.6500, 0.6516 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0025</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3605, 0.3583, 0.3514, 0.3533, 0.3645 | 0.3576, 0.0048</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2425, 0.2411, 0.2393, 0.2412, 0.2430 | 0.2414, 0.0013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2899, 0.2883, 0.2847, 0.2867, 0.2916 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6453, 0.6394, 0.6519, 0.6445, 0.6505 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6463</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0045</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>raw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  99965: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:44, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2339</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3484</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6256</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  99777: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:50, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6240</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  99862: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:04, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2367</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3477</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6332</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges 100142: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 07:01, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2339</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3472</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6275</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  99866: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 06:59, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2369</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3549</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6352</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>raw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3623, 0.3650, 0.3574, 0.3552, 0.3679 | 0.3616, 0.0047</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2426, 0.2438, 0.2437, 0.2426, 0.2470 | 0.2439, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2906, 0.2923, 0.2898, 0.2883, 0.2955 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2913</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6488, 0.6450, 0.6502, 0.6444, 0.6559 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6489</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: raw | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:20, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2289</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3455</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6227</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:22, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2272</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3353</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6141</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2291</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6242</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:20, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2276</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3359</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6281</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:39, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3468</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6286</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: raw | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3630, 0.3626, 0.3577, 0.3627, 0.3670 | 0.3626, 0.0030</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2445, 0.2427, 0.2454, 0.2438, 0.2461 | 0.2445, 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2922, 0.2908, 0.2911, 0.2916, 0.2946 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2921</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6558, 0.6452, 0.6532, 0.6489, 0.6526 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6511</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0037</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3674, 0.3607, 0.3588, 0.3626, 0.3678 | 0.3635, 0.0036</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2444, 0.2432, 0.2451, 0.2447, 0.2461 | 0.2447, 0.0009</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2935, 0.2905, 0.2913, 0.2922, 0.2949 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2925</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6552, 0.6487, 0.6472, 0.6503, 0.6565 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6516</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0036</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp**2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3642, 0.3639, 0.3582, 0.3653, 0.3682 | 0.3640, 0.0033</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2461, 0.2442, 0.2435, 0.2462, 0.2482 | 0.2456, 0.0017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2937, 0.2923, 0.2899, 0.2942, 0.2965 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2933</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6587, 0.6429, 0.6491, 0.6516, 0.6559 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6516</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0055</t>
     </r>
   </si>
 </sst>
@@ -12478,7 +20239,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -12556,6 +20317,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -12584,7 +20352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12608,6 +20376,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16993,7 +24762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
   <dimension ref="B6:Y350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+    <sheetView topLeftCell="A319" workbookViewId="0">
       <selection activeCell="P350" sqref="P350"/>
     </sheetView>
   </sheetViews>
@@ -17003,16 +24772,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -18108,18 +25877,18 @@
     </row>
     <row r="276" spans="2:25" x14ac:dyDescent="0.2">
       <c r="O276" s="6"/>
-      <c r="P276" s="13" t="s">
+      <c r="P276" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q276" s="13"/>
-      <c r="R276" s="13" t="s">
+      <c r="Q276" s="14"/>
+      <c r="R276" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="S276" s="13"/>
-      <c r="T276" s="13" t="s">
+      <c r="S276" s="14"/>
+      <c r="T276" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="U276" s="13"/>
+      <c r="U276" s="14"/>
     </row>
     <row r="277" spans="2:25" x14ac:dyDescent="0.2">
       <c r="O277" s="4" t="s">
@@ -18556,10 +26325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:K79"/>
+  <dimension ref="C3:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="M218" sqref="M218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18891,16 +26660,642 @@
         <v>240</v>
       </c>
     </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C87" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C89" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C90" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C91" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C95" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C96" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="209" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C209" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C210" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N210">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="O210">
+        <v>0.28849999999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="O211">
+        <v>0.29330000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <f>N211-N210</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="O212">
+        <f>O211-O210</f>
+        <v>4.8000000000000265E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N213" s="11">
+        <f>N212/N210</f>
+        <v>1.2336160370084823E-2</v>
+      </c>
+      <c r="O213" s="1">
+        <f>O212/O210</f>
+        <v>1.6637781629116211E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C216" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C217" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="218" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C218" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="219" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C219" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C220" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="221" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C221" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:W133"/>
+  <dimension ref="B4:W155"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="Q132" sqref="Q132"/>
     </sheetView>
   </sheetViews>
@@ -19450,7 +27845,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="130" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K130">
         <f>0.6621</f>
         <v>0.66210000000000002</v>
@@ -19459,8 +27854,14 @@
         <f>0.2997</f>
         <v>0.29970000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="Q130">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K131">
         <f>0.6604</f>
         <v>0.66039999999999999</v>
@@ -19469,8 +27870,15 @@
         <f>0.2958</f>
         <v>0.29580000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <f>0.6604</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="Q131">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K132">
         <f>K130-K131</f>
         <v>1.7000000000000348E-3</v>
@@ -19479,8 +27887,16 @@
         <f>L130-L131</f>
         <v>3.9000000000000146E-3</v>
       </c>
-    </row>
-    <row r="133" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="P132">
+        <f>P130-P131</f>
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="Q132">
+        <f>Q130-Q131</f>
+        <v>5.8000000000000274E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K133" s="11">
         <f>K132/K131</f>
         <v>2.5741974560872728E-3</v>
@@ -19488,6 +27904,519 @@
       <c r="L133" s="11">
         <f>L132/L131</f>
         <v>1.3184584178499034E-2</v>
+      </c>
+      <c r="P133" s="11">
+        <f>P132/P131</f>
+        <v>3.785584494245999E-3</v>
+      </c>
+      <c r="Q133" s="11">
+        <f>Q132/Q131</f>
+        <v>1.9634394041977074E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
+  <dimension ref="F6:G160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="M164" sqref="M164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F158" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F159" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F160" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD9CF3-7EED-8442-A881-5BF3163B3F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92146E-FDBB-534B-8E11-0D3C4DB0830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="492">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -20228,6 +20228,246 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0055</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3626, 0.3613, 0.3567, 0.3603, 0.3623 | 0.3606, 0.0021</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2460, 0.2419, 0.2457, 0.2430, 0.2433 | 0.2440, 0.0016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2931, 0.2898, 0.2910, 0.2902, 0.2911 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2910</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6520, 0.6456, 0.6469, 0.6476, 0.6479 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp***2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
     </r>
   </si>
 </sst>
@@ -24762,7 +25002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443BF408-7A87-F845-91DD-7CE63C8182B1}">
   <dimension ref="B6:Y350"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
+    <sheetView topLeftCell="A324" workbookViewId="0">
       <selection activeCell="P350" sqref="P350"/>
     </sheetView>
   </sheetViews>
@@ -26325,10 +26565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:Q221"/>
+  <dimension ref="C3:Q229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="M218" sqref="M218"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="N233" sqref="N233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27272,6 +27512,36 @@
     <row r="221" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C221" s="2" t="s">
         <v>486</v>
+      </c>
+    </row>
+    <row r="224" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C224" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="2" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92146E-FDBB-534B-8E11-0D3C4DB0830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2165F972-09E7-DD4B-96BC-051967CAD549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="2" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId4"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId5"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="503">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -20468,6 +20469,697 @@
         <family val="2"/>
       </rPr>
       <t>81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges  96885: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:46, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3337</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6098</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges  96717: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:45, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6144</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed 89 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:52, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3184</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6043</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 91 | #edges  97042: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:51, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3243</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6124</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  5 | seed 41 | #edges  96795: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 05:45, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3176</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GraphSage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3476, 0.3426, 0.3415, 0.3485, 0.3507 | 0.3462, 0.0035</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2318, 0.2337, 0.2333, 0.2350, 0.2343 | 0.2336, 0.0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2781, 0.2778, 0.2772, 0.2807, 0.2809 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2789</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6400, 0.6372, 0.6407, 0.6363, 0.6380 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6384</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0017</t>
     </r>
   </si>
 </sst>
@@ -26567,7 +27259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
   <dimension ref="C3:Q229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+    <sheetView topLeftCell="A203" workbookViewId="0">
       <selection activeCell="N233" sqref="N233"/>
     </sheetView>
   </sheetViews>
@@ -27550,6 +28242,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3A1F9-E971-D44E-A61D-BD688E95E56A}">
+  <dimension ref="H4:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27561,7 +28353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W155"/>
   <sheetViews>
@@ -28279,7 +29071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
   <dimension ref="F6:G160"/>
   <sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2165F972-09E7-DD4B-96BC-051967CAD549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AE3FE1-0264-AE48-A8A7-06768ED1F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="2" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="507">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -21160,6 +21160,60 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0017</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3675, 0.3591, 0.3571, 0.3683, 0.3644 | 0.3633, 0.0045</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2461, 0.2433, 0.2460, 0.2474, 0.2467 | 0.2459, 0.0014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2948, 0.2900, 0.2913, 0.2960, 0.2942 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2933</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6552, 0.6466, 0.6528, 0.6503, 0.6521 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0029</t>
     </r>
   </si>
 </sst>
@@ -27257,10 +27311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:Q229"/>
+  <dimension ref="C3:Q236"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="N233" sqref="N233"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231:C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28236,6 +28290,36 @@
         <v>490</v>
       </c>
     </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28245,8 +28329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3A1F9-E971-D44E-A61D-BD688E95E56A}">
   <dimension ref="H4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AE3FE1-0264-AE48-A8A7-06768ED1F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1C0A8-3586-D946-AF64-B6675029A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="517">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -21214,6 +21214,486 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0029</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>raw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3583, 0.3557, 0.3478, 0.3549, 0.3631 | 0.3560, 0.0050</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2419, 0.2384, 0.2374, 0.2409, 0.2410 | 0.2399, 0.0017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2888, 0.2854, 0.2822, 0.2870, 0.2897 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2866</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6477, 0.6435, 0.6460, 0.6409, 0.6482 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6453</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 70), i-cosine(topK 22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>raw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.3623, 0.3579, 0.3499, 0.3574, 0.3647 | 0.3584, 0.0051</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2422, 0.2419, 0.2388, 0.2417, 0.2464 | 0.2422, 0.0024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2903, 0.2887, 0.2839, 0.2884, 0.2941 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2891</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0033</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.6516, 0.6469, 0.6477, 0.6395, 0.6508 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6473</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0043</t>
     </r>
   </si>
 </sst>
@@ -27311,10 +27791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
-  <dimension ref="C3:Q236"/>
+  <dimension ref="C3:Y243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231:C236"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="M246" sqref="M246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27925,62 +28405,80 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C147" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="Y152" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C153" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="Y153" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C154" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="Y154" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C155" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="Y155" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C156" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="Y156" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="157" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C157" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="Y157" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="160" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C160" s="2" t="s">
         <v>0</v>
       </c>
@@ -28318,6 +28816,36 @@
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C236" s="2" t="s">
         <v>506</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1C0A8-3586-D946-AF64-B6675029A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680AD8E-7A12-984A-9918-157189AA3B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="1" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="3" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId5"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId6"/>
+    <sheet name="Yelp" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId6"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="534">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -21694,6 +21695,757 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0043</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: yelp, num_users: 245, num_items: 51422, num_interactions: 140418</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0230, 0.0242, 0.0238, 0.0245, 0.0256 | 0.0242, 0.0009</t>
+  </si>
+  <si>
+    <t>    Prec: 0.1033, 0.1045, 0.1071, 0.1084, 0.1122 | 0.1071, 0.0031</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0376, 0.0393, 0.0390, 0.0400, 0.0417 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.3819, 0.4218, 0.3964, 0.4153, 0.4086 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0142</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges 468966: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 21:16, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0221</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3875</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges 467418: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 21:06, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0965</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3596</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges 469757: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 20:45, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0920</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3557</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 469339: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 20:55, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0203</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3482</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges 469415: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 20:53, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0967</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3694</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: yelp, num_users: 245, num_items: 51422, num_interactions: 140418</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0237, 0.0233, 0.0237, 0.0220, 0.0241 | 0.0234, 0.0007</t>
+  </si>
+  <si>
+    <t>    Prec: 0.1067, 0.1008, 0.1041, 0.0978, 0.1059 | 0.1031, 0.0033</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0388, 0.0378, 0.0386, 0.0359, 0.0393 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0381</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.3946, 0.3882, 0.3927, 0.3708, 0.3871 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3867</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0084</t>
     </r>
   </si>
 </sst>
@@ -27793,7 +28545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
   <dimension ref="C3:Y243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="M246" sqref="M246"/>
     </sheetView>
   </sheetViews>
@@ -28855,96 +29607,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3A1F9-E971-D44E-A61D-BD688E95E56A}">
-  <dimension ref="H4:H22"/>
+  <dimension ref="D4:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="2" t="s">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="2" t="s">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="2" t="s">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="2" t="s">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H8" s="2" t="s">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H10" s="2" t="s">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H12" s="2" t="s">
+    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H13" s="2" t="s">
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H14" s="2" t="s">
+    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H15" s="2" t="s">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H16" s="2" t="s">
+    <row r="16" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="2" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="2" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="2" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="2" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="2" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="2" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
         <v>502</v>
       </c>
     </row>
@@ -28954,6 +29706,111 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
+  <dimension ref="D6:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28965,7 +29822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W155"/>
   <sheetViews>
@@ -29683,7 +30540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
   <dimension ref="F6:G160"/>
   <sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680AD8E-7A12-984A-9918-157189AA3B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51237801-E8C5-0340-BD81-DE7F4627447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="3" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -29707,10 +29707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
-  <dimension ref="D6:D25"/>
+  <dimension ref="D6:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29760,49 +29760,69 @@
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D22" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D25" s="2" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="N30" s="10">
+        <v>0.248</v>
+      </c>
+      <c r="O30" s="10">
+        <f>N30-N29</f>
+        <v>4.3500000000000011E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="1">
+        <f>O30/N29</f>
+        <v>0.21271393643031791</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51237801-E8C5-0340-BD81-DE7F4627447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D769DE-74E9-8845-A838-BBFF8A298A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="3" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="4" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="Yelp" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId6"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId7"/>
+    <sheet name="Douban-music" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId7"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="553">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -22446,6 +22447,763 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0084</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: douban_music, num_users: 1136, num_items: 2479, num_interactions: 43257</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0960, 0.0993, 0.1045, 0.0985, 0.1056 | 0.1008, 0.0037</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0380, 0.0384, 0.0398, 0.0390, 0.0392 | 0.0389, 0.0006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0544, 0.0554, 0.0577, 0.0558, 0.0572 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0561</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2002, 0.1919, 0.1938, 0.1918, 0.1929 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1941</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0031</t>
+    </r>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 40: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 15: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  80774: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1083</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2049</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  81049: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  80946: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:26, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0407</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1991</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  80864: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:28, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0412</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  80934: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1915</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: douban_music, num_users: 1136, num_items: 2479, num_interactions: 43257</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1131, 0.1070, 0.1142, 0.1166, 0.1140 | 0.1130, 0.0032</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0410, 0.0407, 0.0422, 0.0416, 0.0409 | 0.0413, 0.0005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0602, 0.0590, 0.0616, 0.0614, 0.0602 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2123, 0.2046, 0.2100, 0.2073, 0.2061 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2081</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0028</t>
     </r>
   </si>
 </sst>
@@ -29709,8 +30467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
   <dimension ref="D6:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29831,6 +30589,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC8B800-93CF-FA4D-8D4C-4D90126358DD}">
+  <dimension ref="F5:W34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="V14">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="W14">
+        <v>5.6099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F15" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="V15">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="W15">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="V16">
+        <f>V15-V14</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="W16">
+        <f>W15-W14</f>
+        <v>4.4000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="V17" s="1">
+        <f>V16/V14</f>
+        <v>7.2127769191138655E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <f>W16/W14</f>
+        <v>7.8431372549019635E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F28" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F29" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F31" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -29842,7 +30783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W155"/>
   <sheetViews>
@@ -30560,7 +31501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
   <dimension ref="F6:G160"/>
   <sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D769DE-74E9-8845-A838-BBFF8A298A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E84A424-BF39-9244-BB89-D60064723BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="4" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="6" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -30592,7 +30592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC8B800-93CF-FA4D-8D4C-4D90126358DD}">
   <dimension ref="F5:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
@@ -30785,10 +30785,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:W155"/>
+  <dimension ref="B4:W161"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="Q132" sqref="Q132"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="Q162" sqref="Q162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31441,59 +31441,75 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>29858</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>40981</v>
+      </c>
+    </row>
+    <row r="161" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q161">
+        <f>Q160+Q159</f>
+        <v>70839</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E84A424-BF39-9244-BB89-D60064723BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CAB590-919F-E149-A8E6-30AB8EF0010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="6" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
@@ -30785,10 +30785,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:W161"/>
+  <dimension ref="B4:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="Q162" sqref="Q162"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31506,10 +31506,30 @@
         <v>40981</v>
       </c>
     </row>
-    <row r="161" spans="17:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>0.23860000000000001</v>
+      </c>
       <c r="Q161">
         <f>Q160+Q159</f>
         <v>70839</v>
+      </c>
+    </row>
+    <row r="162" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>0.2324</v>
+      </c>
+    </row>
+    <row r="163" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <f>K161-K162</f>
+        <v>6.2000000000000111E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K164" s="1">
+        <f>K163/K162</f>
+        <v>2.667814113597251E-2</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CAB590-919F-E149-A8E6-30AB8EF0010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB191A1A-F7A1-4B40-ADB8-5FF79883B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="6" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="3" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Yelp" sheetId="7" r:id="rId4"/>
-    <sheet name="Douban-music" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId7"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="Yelp" sheetId="7" r:id="rId5"/>
+    <sheet name="Douban-music" sheetId="8" r:id="rId6"/>
+    <sheet name="Gowalla-CPU" sheetId="5" r:id="rId7"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId8"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="583">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -23205,6 +23206,1189 @@
       </rPr>
       <t>, 0.0028</t>
     </r>
+  </si>
+  <si>
+    <t> Dataset: gowalla, num_users: 18382, num_items: 14417, num_interactions: 1119235</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1148, 0.1150, 0.1162, 0.1150, 0.1132 | 0.1148, 0.0010</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0369, 0.0363, 0.0373, 0.0372, 0.0369 | 0.0369, 0.0003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0559, 0.0552, 0.0565, 0.0563, 0.0557 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0559</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2324, 0.2305, 0.2345, 0.2322, 0.2288 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2317</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges 883167: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:48, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0397</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2379</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges 883004: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:44:35, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0385</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1193</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2365</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges 882711: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:46, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2396</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 883228: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:24, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2386</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges 882698: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 2:09:06, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2354</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: gowalla, num_users: 18382, num_items: 14417, num_interactions: 1119235</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1202, 0.1200, 0.1206, 0.1199, 0.1168 | 0.1195, 0.0014</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0397, 0.0389, 0.0397, 0.0395, 0.0392 | 0.0394, 0.0003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0597, 0.0587, 0.0597, 0.0595, 0.0587 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2386, 0.2371, 0.2411, 0.2409, 0.2368 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: gowalla_2, num_users: 29858, num_items: 40981, num_interactions: 810128</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 30), i-cosine(topK 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0836, 0.0839, 0.0846, 0.0823, 0.0843 | 0.0837, 0.0008</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0273, 0.0274, 0.0276, 0.0270, 0.0274 | 0.0273, 0.0002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0412, 0.0414, 0.0417, 0.0407, 0.0414 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0413</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.1735, 0.1765, 0.1755, 0.1731, 0.1752 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1748</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0013</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: gowalla_2, num_users: 29858, num_items: 40981, num_interactions: 810128</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0843, 0.0844, 0.0848, 0.0828, 0.0844 | 0.0841, 0.0007</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0274, 0.0277, 0.0276, 0.0271, 0.0276 | 0.0275, 0.0002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0414, 0.0417, 0.0417, 0.0409, 0.0416 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0415</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.1747, 0.1773, 0.1765, 0.1715, 0.1764 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1753</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0021</t>
+    </r>
+  </si>
+  <si>
+    <t>python main_2.py --layers=0 --epochs=51 --u_sim_top_k=30 --i_sim_top_k=10 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn --weight_mode=exp --dataset=gowalla_2 --verbose=1 --batch_size=10024</t>
   </si>
 </sst>
 </file>
@@ -30464,6 +31648,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42FCFF-091E-7840-B7C3-E713DE4E5FB6}">
+  <dimension ref="G4:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
   <dimension ref="D6:O31"/>
   <sheetViews>
@@ -30588,7 +31852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC8B800-93CF-FA4D-8D4C-4D90126358DD}">
   <dimension ref="F5:W34"/>
   <sheetViews>
@@ -30771,23 +32035,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
-  <dimension ref="A1"/>
+  <dimension ref="F9:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
@@ -31537,7 +32894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
   <dimension ref="F6:G160"/>
   <sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB191A1A-F7A1-4B40-ADB8-5FF79883B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C595A1-E938-0944-95EE-21776C7CA038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="3" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="6" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
     <sheet name="AttnMode - CPU" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="Yelp" sheetId="7" r:id="rId5"/>
-    <sheet name="Douban-music" sheetId="8" r:id="rId6"/>
-    <sheet name="Gowalla-CPU" sheetId="5" r:id="rId7"/>
-    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId8"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId6"/>
+    <sheet name="Yelp-CPU" sheetId="7" r:id="rId7"/>
+    <sheet name="Douban-music" sheetId="8" r:id="rId8"/>
+    <sheet name="Gowalla-CPU" sheetId="5" r:id="rId9"/>
+    <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId10"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId11"/>
+    <sheet name="ml-1m GPU" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="598">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -21700,7 +21703,7 @@
     </r>
   </si>
   <si>
-    <t> Dataset: yelp, num_users: 245, num_items: 51422, num_interactions: 140418</t>
+    <t> Dataset: douban_music, num_users: 1136, num_items: 2479, num_interactions: 43257</t>
   </si>
   <si>
     <r>
@@ -21771,6 +21774,763 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0960, 0.0993, 0.1045, 0.0985, 0.1056 | 0.1008, 0.0037</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0380, 0.0384, 0.0398, 0.0390, 0.0392 | 0.0389, 0.0006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0544, 0.0554, 0.0577, 0.0558, 0.0572 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0561</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2002, 0.1919, 0.1938, 0.1918, 0.1929 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1941</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0031</t>
+    </r>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 40: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 15: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges  80774: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1083</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2049</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges  81049: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges  80946: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:26, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0407</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1991</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges  80864: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:28, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0412</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges  80934: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0391</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1915</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: douban_music, num_users: 1136, num_items: 2479, num_interactions: 43257</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1131, 0.1070, 0.1142, 0.1166, 0.1140 | 0.1130, 0.0032</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0410, 0.0407, 0.0422, 0.0416, 0.0409 | 0.0413, 0.0005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0602, 0.0590, 0.0616, 0.0614, 0.0602 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2123, 0.2046, 0.2100, 0.2073, 0.2061 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2081</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0028</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: gowalla, num_users: 18382, num_items: 14417, num_interactions: 1119235</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -21790,7 +22550,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>u-cosine(topK 40), i-cosine(topK 10)</t>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
     </r>
     <r>
       <rPr>
@@ -21847,6 +22607,1225 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>4048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1148, 0.1150, 0.1162, 0.1150, 0.1132 | 0.1148, 0.0010</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0369, 0.0363, 0.0373, 0.0372, 0.0369 | 0.0369, 0.0003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0559, 0.0552, 0.0565, 0.0563, 0.0557 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0559</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2324, 0.2305, 0.2345, 0.2322, 0.2288 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2317</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  6 | seed  7 | #edges 883167: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:48, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0397</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2379</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  7 | seed 12 | #edges 883004: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:44:35, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0385</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1193</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2365</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  8 | seed 89 | #edges 882711: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:46, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2396</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  9 | seed 91 | #edges 883228: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:24, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2386</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp 10 | seed 41 | #edges 882698: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 2:09:06, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2354</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: gowalla, num_users: 18382, num_items: 14417, num_interactions: 1119235</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1202, 0.1200, 0.1206, 0.1199, 0.1168 | 0.1195, 0.0014</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0397, 0.0389, 0.0397, 0.0395, 0.0392 | 0.0394, 0.0003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0597, 0.0587, 0.0597, 0.0595, 0.0587 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2386, 0.2371, 0.2411, 0.2409, 0.2368 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0018</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset: gowalla_2, num_users: 29858, num_items: 40981, num_interactions: 810128</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 30), i-cosine(topK 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Weight mode: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Self-sim: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0836, 0.0839, 0.0846, 0.0823, 0.0843 | 0.0837, 0.0008</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0273, 0.0274, 0.0276, 0.0270, 0.0274 | 0.0273, 0.0002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0412, 0.0414, 0.0417, 0.0407, 0.0414 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0413</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.1735, 0.1765, 0.1755, 0.1731, 0.1752 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1748</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0013</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: gowalla_2, num_users: 29858, num_items: 40981, num_interactions: 810128</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EMB_DIM: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.0843, 0.0844, 0.0848, 0.0828, 0.0844 | 0.0841, 0.0007</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0274, 0.0277, 0.0276, 0.0271, 0.0276 | 0.0275, 0.0002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0414, 0.0417, 0.0417, 0.0409, 0.0416 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0415</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.1747, 0.1773, 0.1765, 0.1715, 0.1764 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1753</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0021</t>
+    </r>
+  </si>
+  <si>
+    <t>python main_2.py --layers=0 --epochs=51 --u_sim_top_k=30 --i_sim_top_k=10 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn --weight_mode=exp --dataset=gowalla_2 --verbose=1 --batch_size=10024</t>
+  </si>
+  <si>
+    <t>(base) tseesurenb@Tseesurens-MBP hyperGCN % python main.py --layers=1 --epochs=41 --u_sim_top_k=50 --i_sim_top_k=15 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn --weight_mode=exp --dataset=yelp</t>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 50: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges 785322 | epoch(41) 40 | Batch(383) 382: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:22:27, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0467</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1342</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2384</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges 785322 | epoch(41) 40 | Batch(383) 382: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:21:46, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0468</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2367</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: yelp, num_users: 12609, num_items: 5580, num_interactions: 542883</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>1024</t>
     </r>
     <r>
@@ -21885,18 +23864,477 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>41</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1424, 0.1409 | 0.1416, 0.0008</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0497, 0.0495 | 0.0496, 0.0001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0737, 0.0732 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0734</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2506, 0.2514 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2510</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0004</t>
+    </r>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed  7 | #edges 711736 | epoch(41) 40 | Batch(383) 382: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:48:38, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0519</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1509</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2616</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 711711 | epoch(41) 40 | Batch(383) 382: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:50:58, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1494</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2592</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM (mode-exp, self-False): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 50), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>41</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.1598, 0.1588 | 0.1593, 0.0005</t>
+  </si>
+  <si>
+    <t>    Prec: 0.0549, 0.0550 | 0.0550, 0.0001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.0817, 0.0817 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0817</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.2721, 0.2716 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2719</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: ml-1m, num_users: 4297, num_items: 2477, num_interactions: 920360</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>51</t>
     </r>
   </si>
   <si>
-    <t>  Recall: 0.0230, 0.0242, 0.0238, 0.0245, 0.0256 | 0.0242, 0.0009</t>
-  </si>
-  <si>
-    <t>    Prec: 0.1033, 0.1045, 0.1071, 0.1084, 0.1122 | 0.1071, 0.0031</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0376, 0.0393, 0.0390, 0.0400, 0.0417 | </t>
+    <t>  Recall: 0.2250, 0.2262 | 0.2256, 0.0006</t>
+  </si>
+  <si>
+    <t>    Prec: 0.3187, 0.3201 | 0.3194, 0.0007</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2638, 0.2651 | </t>
     </r>
     <r>
       <rPr>
@@ -21906,21 +24344,21 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.0395</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0013</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.3819, 0.4218, 0.3964, 0.4153, 0.4086 | </t>
+      <t>0.2644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.7078, 0.7067 | </t>
     </r>
     <r>
       <rPr>
@@ -21930,31 +24368,34 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.4048</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0142</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  6 | seed  7 | #edges 468966: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 21:16, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0992</t>
+      <t>0.7072</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0005</t>
+    </r>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 20: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed  7 | #edges 264321 | epoch(51) 50 | Batch(61)  60: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:11:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3118</t>
     </r>
     <r>
       <rPr>
@@ -21973,7 +24414,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.0221</t>
+      <t>0.2234</t>
     </r>
     <r>
       <rPr>
@@ -21992,22 +24433,22 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.3875</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  7 | seed 12 | #edges 467418: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 21:06, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0965</t>
+      <t>0.6935</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 264328 | epoch(51) 50 | Batch(61)  60: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:07:50, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3132</t>
     </r>
     <r>
       <rPr>
@@ -22026,7 +24467,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.0212</t>
+      <t>0.2243</t>
     </r>
     <r>
       <rPr>
@@ -22045,170 +24486,8 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.3596</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  8 | seed 89 | #edges 469757: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 20:45, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0920</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0207</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.3557</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  9 | seed 91 | #edges 469339: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 20:55, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0882</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0203</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.3482</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp 10 | seed 41 | #edges 469415: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 20:53, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0967</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0223</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.3694</t>
-    </r>
-  </si>
-  <si>
-    <t>Dataset: yelp, num_users: 245, num_items: 51422, num_interactions: 140418</t>
+      <t>0.6900</t>
+    </r>
   </si>
   <si>
     <r>
@@ -22250,25 +24529,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> | #LAYERS: </t>
     </r>
     <r>
@@ -22288,55 +24548,17 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | SIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>u-cosine(topK 40), i-cosine(topK 10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Weight mode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Self-sim: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
+      <t xml:space="preserve"> | SIM (mode-exp, self-False): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 50), i-cosine(topK 20)</t>
     </r>
     <r>
       <rPr>
@@ -22355,7 +24577,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>1024</t>
+      <t>10024</t>
     </r>
     <r>
       <rPr>
@@ -22397,14 +24619,14 @@
     </r>
   </si>
   <si>
-    <t>  Recall: 0.0237, 0.0233, 0.0237, 0.0220, 0.0241 | 0.0234, 0.0007</t>
-  </si>
-  <si>
-    <t>    Prec: 0.1067, 0.1008, 0.1041, 0.0978, 0.1059 | 0.1031, 0.0033</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0388, 0.0378, 0.0386, 0.0359, 0.0393 | </t>
+    <t>  Recall: 0.2329, 0.2337 | 0.2333, 0.0004</t>
+  </si>
+  <si>
+    <t>    Prec: 0.3264, 0.3281 | 0.3273, 0.0008</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2719, 0.2730 | </t>
     </r>
     <r>
       <rPr>
@@ -22414,21 +24636,21 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.0381</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0012</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.3946, 0.3882, 0.3927, 0.3708, 0.3871 | </t>
+      <t>0.2724</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.7121, 0.7117 | </t>
     </r>
     <r>
       <rPr>
@@ -22438,1957 +24660,17 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>0.3867</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0084</t>
-    </r>
-  </si>
-  <si>
-    <t> Dataset: douban_music, num_users: 1136, num_items: 2479, num_interactions: 43257</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   MODEL: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>LightGCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EDGE TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | #LAYERS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | SIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Weight mode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Self-sim: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | BATCH_SIZE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>1024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | DECAY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EPOCHS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <t>  Recall: 0.0960, 0.0993, 0.1045, 0.0985, 0.1056 | 0.1008, 0.0037</t>
-  </si>
-  <si>
-    <t>    Prec: 0.0380, 0.0384, 0.0398, 0.0390, 0.0392 | 0.0389, 0.0006</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0544, 0.0554, 0.0577, 0.0558, 0.0572 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0561</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0012</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.2002, 0.1919, 0.1938, 0.1918, 0.1929 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1941</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0031</t>
-    </r>
-  </si>
-  <si>
-    <t>Preparing similarity matrix | Top-K: 40: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
-  </si>
-  <si>
-    <t>Preparing similarity matrix | Top-K: 15: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:00</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  6 | seed  7 | #edges  80774: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:25, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0408</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1083</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2049</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  7 | seed 12 | #edges  81049: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:27, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0399</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1046</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  8 | seed 89 | #edges  80946: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:26, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0407</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1096</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1991</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  9 | seed 91 | #edges  80864: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:28, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0412</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1124</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2034</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp 10 | seed 41 | #edges  80934: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 03:27, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0391</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1054</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1915</t>
-    </r>
-  </si>
-  <si>
-    <t>Dataset: douban_music, num_users: 1136, num_items: 2479, num_interactions: 43257</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   MODEL: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>LightGCNAttn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EDGE TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | #LAYERS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | SIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Weight mode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Self-sim: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | BATCH_SIZE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>1024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | DECAY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EPOCHS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <t>  Recall: 0.1131, 0.1070, 0.1142, 0.1166, 0.1140 | 0.1130, 0.0032</t>
-  </si>
-  <si>
-    <t>    Prec: 0.0410, 0.0407, 0.0422, 0.0416, 0.0409 | 0.0413, 0.0005</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0602, 0.0590, 0.0616, 0.0614, 0.0602 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0605</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0009</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.2123, 0.2046, 0.2100, 0.2073, 0.2061 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2081</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0028</t>
-    </r>
-  </si>
-  <si>
-    <t> Dataset: gowalla, num_users: 18382, num_items: 14417, num_interactions: 1119235</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   MODEL: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>LightGCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EDGE TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | #LAYERS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | SIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Weight mode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Self-sim: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | BATCH_SIZE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>4048</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | DECAY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EPOCHS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <t>  Recall: 0.1148, 0.1150, 0.1162, 0.1150, 0.1132 | 0.1148, 0.0010</t>
-  </si>
-  <si>
-    <t>    Prec: 0.0369, 0.0363, 0.0373, 0.0372, 0.0369 | 0.0369, 0.0003</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0559, 0.0552, 0.0565, 0.0563, 0.0557 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0559</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.2324, 0.2305, 0.2345, 0.2322, 0.2288 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2317</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  6 | seed  7 | #edges 883167: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:48, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0397</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2379</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  7 | seed 12 | #edges 883004: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:44:35, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0385</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1193</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2365</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  8 | seed 89 | #edges 882711: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:46, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0396</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1199</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2396</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp  9 | seed 91 | #edges 883228: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:46:24, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0392</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1192</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2386</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exp 10 | seed 41 | #edges 882698: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 2:09:06, prec@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0392</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | recall@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1168</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | ncdg@20: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2354</t>
-    </r>
-  </si>
-  <si>
-    <t>Dataset: gowalla, num_users: 18382, num_items: 14417, num_interactions: 1119235</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   MODEL: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>LightGCNAttn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EDGE TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | #LAYERS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | SIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>u-cosine(topK 40), i-cosine(topK 15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Weight mode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Self-sim: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | BATCH_SIZE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>4048</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | DECAY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EPOCHS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <t>  Recall: 0.1202, 0.1200, 0.1206, 0.1199, 0.1168 | 0.1195, 0.0014</t>
-  </si>
-  <si>
-    <t>    Prec: 0.0397, 0.0389, 0.0397, 0.0395, 0.0392 | 0.0394, 0.0003</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0597, 0.0587, 0.0597, 0.0595, 0.0587 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0593</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.2386, 0.2371, 0.2411, 0.2409, 0.2368 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.2389</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0018</t>
-    </r>
-  </si>
-  <si>
-    <t>Dataset: gowalla_2, num_users: 29858, num_items: 40981, num_interactions: 810128</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   MODEL: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>LightGCNAttn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EDGE TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>knn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | #LAYERS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | SIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>u-cosine(topK 30), i-cosine(topK 10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Weight mode: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | Self-sim: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>False</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | BATCH_SIZE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>10024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | DECAY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EPOCHS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <t>  Recall: 0.0836, 0.0839, 0.0846, 0.0823, 0.0843 | 0.0837, 0.0008</t>
-  </si>
-  <si>
-    <t>    Prec: 0.0273, 0.0274, 0.0276, 0.0270, 0.0274 | 0.0273, 0.0002</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0412, 0.0414, 0.0417, 0.0407, 0.0414 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0413</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.1735, 0.1765, 0.1755, 0.1731, 0.1752 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1748</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0013</t>
-    </r>
-  </si>
-  <si>
-    <t> Dataset: gowalla_2, num_users: 29858, num_items: 40981, num_interactions: 810128</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   MODEL: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>LightGCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EDGE TYPE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EMB_DIM: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | #LAYERS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | BATCH_SIZE: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>10024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | DECAY: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> | EPOCHS: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFB42419"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>51</t>
-    </r>
-  </si>
-  <si>
-    <t>  Recall: 0.0843, 0.0844, 0.0848, 0.0828, 0.0844 | 0.0841, 0.0007</t>
-  </si>
-  <si>
-    <t>    Prec: 0.0274, 0.0277, 0.0276, 0.0271, 0.0276 | 0.0275, 0.0002</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F1 score: 0.0414, 0.0417, 0.0417, 0.0409, 0.0416 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.0415</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    NDCG: 0.1747, 0.1773, 0.1765, 0.1715, 0.1764 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF400BD9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1753</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0.0021</t>
-    </r>
-  </si>
-  <si>
-    <t>python main_2.py --layers=0 --epochs=51 --u_sim_top_k=30 --i_sim_top_k=10 --u_sim=cosine --i_sim=cosine --edge=knn --model=LightGCNAttn --weight_mode=exp --dataset=gowalla_2 --verbose=1 --batch_size=10024</t>
+      <t>0.7119</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0002</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -30483,6 +30765,1285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
+  <dimension ref="B4:W164"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="N162" sqref="N162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V65">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="W65">
+        <v>0.28489999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V66">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="W66">
+        <f>0.2797</f>
+        <v>0.2797</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V67">
+        <f>V65-V66</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="W67">
+        <f>W65-W66</f>
+        <v>5.1999999999999824E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V68" s="1">
+        <f>V67/V66</f>
+        <v>9.4117647058823625E-3</v>
+      </c>
+      <c r="W68" s="1">
+        <f>W67/W66</f>
+        <v>1.8591347872720709E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <f>0.6621</f>
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="L130">
+        <f>0.2997</f>
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="P130">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="Q130">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <f>0.6604</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="L131">
+        <f>0.2958</f>
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="P131">
+        <f>0.6604</f>
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="Q131">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <f>K130-K131</f>
+        <v>1.7000000000000348E-3</v>
+      </c>
+      <c r="L132">
+        <f>L130-L131</f>
+        <v>3.9000000000000146E-3</v>
+      </c>
+      <c r="P132">
+        <f>P130-P131</f>
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="Q132">
+        <f>Q130-Q131</f>
+        <v>5.8000000000000274E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K133" s="11">
+        <f>K132/K131</f>
+        <v>2.5741974560872728E-3</v>
+      </c>
+      <c r="L133" s="11">
+        <f>L132/L131</f>
+        <v>1.3184584178499034E-2</v>
+      </c>
+      <c r="P133" s="11">
+        <f>P132/P131</f>
+        <v>3.785584494245999E-3</v>
+      </c>
+      <c r="Q133" s="11">
+        <f>Q132/Q131</f>
+        <v>1.9634394041977074E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>29858</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>40981</v>
+      </c>
+    </row>
+    <row r="161" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="Q161">
+        <f>Q160+Q159</f>
+        <v>70839</v>
+      </c>
+    </row>
+    <row r="162" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>0.2324</v>
+      </c>
+    </row>
+    <row r="163" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <f>K161-K162</f>
+        <v>6.2000000000000111E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K164" s="1">
+        <f>K163/K162</f>
+        <v>2.667814113597251E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
+  <dimension ref="F6:G160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="M164" sqref="M164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F158" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F159" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F160" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53A4F0-6685-F846-B043-E09FCBA7D156}">
+  <dimension ref="D4:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B913F982-222B-9943-8C1D-0E4E3221899A}">
   <dimension ref="C3:Y243"/>
@@ -31651,7 +33212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42FCFF-091E-7840-B7C3-E713DE4E5FB6}">
   <dimension ref="G4:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -31659,67 +33220,67 @@
   <sheetData>
     <row r="4" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G4" s="2" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G7" s="2" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G8" s="2" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G9" s="2" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G10" s="2" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G11" s="2" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G12" s="2" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G14" s="2" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G15" s="2" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G16" s="2" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="2" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="2" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="2" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -31728,123 +33289,201 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95BED56-C25C-5241-BA66-E3559BF69E62}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D081D2-923B-464B-8D55-AF476C32B5D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
-  <dimension ref="D6:O31"/>
+  <dimension ref="D6:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="2" t="s">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>524</v>
       </c>
     </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
-        <v>525</v>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D18" s="2" t="s">
-        <v>526</v>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
-        <v>527</v>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
-        <v>528</v>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D21" s="2" t="s">
-        <v>529</v>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D22" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
-        <v>531</v>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
-        <v>532</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D25" s="2" t="s">
-        <v>533</v>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="N29">
-        <v>0.20449999999999999</v>
+      <c r="E29" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="N30" s="10">
-        <v>0.248</v>
-      </c>
-      <c r="O30" s="10">
-        <f>N30-N29</f>
-        <v>4.3500000000000011E-2</v>
-      </c>
+      <c r="E30" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="O31" s="1">
-        <f>O30/N29</f>
-        <v>0.21271393643031791</v>
+      <c r="E31" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -31852,7 +33491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC8B800-93CF-FA4D-8D4C-4D90126358DD}">
   <dimension ref="F5:W34"/>
   <sheetViews>
@@ -31864,32 +33503,32 @@
   <sheetData>
     <row r="5" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F7" s="2" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F8" s="2" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F9" s="2" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F10" s="2" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="6:23" x14ac:dyDescent="0.2">
@@ -31899,7 +33538,7 @@
     </row>
     <row r="14" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F14" s="2" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="V14">
         <v>0.19409999999999999</v>
@@ -31910,7 +33549,7 @@
     </row>
     <row r="15" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F15" s="2" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="V15">
         <v>0.20810000000000001</v>
@@ -31921,7 +33560,7 @@
     </row>
     <row r="16" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F16" s="2" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="V16">
         <f>V15-V14</f>
@@ -31934,7 +33573,7 @@
     </row>
     <row r="17" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F17" s="2" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="V17" s="1">
         <f>V16/V14</f>
@@ -31947,87 +33586,87 @@
     </row>
     <row r="18" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F18" s="2" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F20" s="2" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F21" s="2" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F22" s="2" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F23" s="2" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F25" s="2" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F26" s="2" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F27" s="2" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F28" s="2" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F29" s="2" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F30" s="2" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F31" s="2" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="6:23" x14ac:dyDescent="0.2">
       <c r="F32" s="2" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="2" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="2" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -32035,7 +33674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD929DAC-CB77-7E42-908E-69A3891D21D5}">
   <dimension ref="F9:F28"/>
   <sheetViews>
@@ -32047,32 +33686,32 @@
   <sheetData>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F9" s="2" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F10" s="2" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F11" s="2" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F12" s="2" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F13" s="2" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F14" s="2" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
@@ -32082,1226 +33721,57 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="2" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="2" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F21" s="2" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22" s="2" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F23" s="2" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F25" s="2" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26" s="2" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F27" s="2" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F28" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
-  <dimension ref="B4:W164"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N162" sqref="N162"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V65">
-        <v>0.64349999999999996</v>
-      </c>
-      <c r="W65">
-        <v>0.28489999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V66">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="W66">
-        <f>0.2797</f>
-        <v>0.2797</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V67">
-        <f>V65-V66</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="W67">
-        <f>W65-W66</f>
-        <v>5.1999999999999824E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V68" s="1">
-        <f>V67/V66</f>
-        <v>9.4117647058823625E-3</v>
-      </c>
-      <c r="W68" s="1">
-        <f>W67/W66</f>
-        <v>1.8591347872720709E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K130">
-        <f>0.6621</f>
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="L130">
-        <f>0.2997</f>
-        <v>0.29970000000000002</v>
-      </c>
-      <c r="P130">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="Q130">
-        <v>0.30120000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K131">
-        <f>0.6604</f>
-        <v>0.66039999999999999</v>
-      </c>
-      <c r="L131">
-        <f>0.2958</f>
-        <v>0.29580000000000001</v>
-      </c>
-      <c r="P131">
-        <f>0.6604</f>
-        <v>0.66039999999999999</v>
-      </c>
-      <c r="Q131">
-        <v>0.2954</v>
-      </c>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K132">
-        <f>K130-K131</f>
-        <v>1.7000000000000348E-3</v>
-      </c>
-      <c r="L132">
-        <f>L130-L131</f>
-        <v>3.9000000000000146E-3</v>
-      </c>
-      <c r="P132">
-        <f>P130-P131</f>
-        <v>2.5000000000000577E-3</v>
-      </c>
-      <c r="Q132">
-        <f>Q130-Q131</f>
-        <v>5.8000000000000274E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K133" s="11">
-        <f>K132/K131</f>
-        <v>2.5741974560872728E-3</v>
-      </c>
-      <c r="L133" s="11">
-        <f>L132/L131</f>
-        <v>1.3184584178499034E-2</v>
-      </c>
-      <c r="P133" s="11">
-        <f>P132/P131</f>
-        <v>3.785584494245999E-3</v>
-      </c>
-      <c r="Q133" s="11">
-        <f>Q132/Q131</f>
-        <v>1.9634394041977074E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B136" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B137" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B138" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B139" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B140" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B141" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B143" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B145" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B146" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B147" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B148" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B149" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B150" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B151" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B153" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B154" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B155" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q159">
-        <v>29858</v>
-      </c>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="Q160">
-        <v>40981</v>
-      </c>
-    </row>
-    <row r="161" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K161">
-        <v>0.23860000000000001</v>
-      </c>
-      <c r="Q161">
-        <f>Q160+Q159</f>
-        <v>70839</v>
-      </c>
-    </row>
-    <row r="162" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K162">
-        <v>0.2324</v>
-      </c>
-    </row>
-    <row r="163" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K163">
-        <f>K161-K162</f>
-        <v>6.2000000000000111E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K164" s="1">
-        <f>K163/K162</f>
-        <v>2.667814113597251E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
-  <dimension ref="F6:G160"/>
-  <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="M164" sqref="M164"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F125" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F127" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F128" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F129" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F142" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F144" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F148" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F150" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F151" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F152" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F153" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F154" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F155" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F156" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F157" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F158" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F159" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F160" s="2" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C595A1-E938-0944-95EE-21776C7CA038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CEACE-A66D-B542-8E3A-EF3C038EBF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="6" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="11" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="614">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -24670,6 +24670,647 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0002</t>
+    </r>
+  </si>
+  <si>
+    <t>(rapids-22.12) madmin@gputest-0:~/hyperGCN$ python main.py --layers=4 --epochs=51 --u_sim_top_k=50 --i_sim_top_k=20 --u_sim=cosine --i_sim=cosine --edge=knn --model=Li</t>
+  </si>
+  <si>
+    <t>ghtGCNAttn --weight_mode=exp --dataset=ml-1m --batch_size=10024                                                                                                        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges 1233880 | epoch(51) 50 | Batch(61)  60: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:12:25, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3215</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2259</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.7106</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed 12 | #edges 1233880 | epoch(51) 50 | Batch(61)  60: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:12:13, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3215</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.7098</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.2259, 0.2254 | 0.2256, 0.0003</t>
+  </si>
+  <si>
+    <t>    Prec: 0.3215, 0.3215 | 0.3215, 0.0000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2654, 0.2650 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2652</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.7106, 0.7105 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.7106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  3 | seed  7 | #edges 264321 | epoch(51) 50 | Batch(61)  60: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:14:39, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2374</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.7189</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 264328 | epoch(51) 36 | Batch(61)  20: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯░░░░░░░░░  71% | 54:20, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 264328 | epoch(51) 36 | Batch(61)  21: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯░░░░░░░░░  71% | 54:21, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 264328 | epoch(51) 36 | Batch(61)  22: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯░░░░░░░░░  71% | 54:22, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 264328 | epoch(51) 36 | Batch(61)  23: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯░░░░░░░░░  71% | 54:23, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Exp  4 | seed 12 | #edges 264328 | epoch(51) 36 | Batch(61)  24: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯░░░Exp  4 | seed 12 | #edges 264328 | epoch(51) 36 | Batch(61)  25Exp  4 | seed 1Exp  4 | seed 12 | #edges 264328 | epoch(51) 50 | Batch(61)  60: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:16:53, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2381</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.7190</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM (mode-exp, self-False): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 50), i-cosine(topK 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.2374, 0.2377 | 0.2376, 0.0001</t>
+  </si>
+  <si>
+    <t>    Prec: 0.3327, 0.3340 | 0.3334, 0.0007</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2771, 0.2778 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2774</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.7189, 0.7200 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.7194</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0005</t>
     </r>
   </si>
 </sst>
@@ -31936,10 +32577,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53A4F0-6685-F846-B043-E09FCBA7D156}">
-  <dimension ref="D4:D24"/>
+  <dimension ref="D4:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32037,6 +32678,182 @@
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="s">
         <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D51" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D54" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D55" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D56" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="J60">
+        <v>0.27739999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="J61">
+        <v>0.26519999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f>I60-I61</f>
+        <v>8.80000000000003E-3</v>
+      </c>
+      <c r="J62">
+        <f>J60-J61</f>
+        <v>1.2199999999999989E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I63" s="11">
+        <f>I62/I61</f>
+        <v>1.2383900928792612E-2</v>
+      </c>
+      <c r="J63" s="11">
+        <f>J62/J61</f>
+        <v>4.6003016591251847E-2</v>
       </c>
     </row>
   </sheetData>
@@ -33316,7 +34133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430C75C-0201-C443-83D7-E5B04FA96B1F}">
   <dimension ref="D6:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CEACE-A66D-B542-8E3A-EF3C038EBF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAE4DE0-4DC0-7443-951D-445AAA72EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="11" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="9" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -31410,8 +31410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W164"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N162" sqref="N162"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32579,7 +32579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53A4F0-6685-F846-B043-E09FCBA7D156}">
   <dimension ref="D4:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>

--- a/exp/Sim_20240827.xlsx
+++ b/exp/Sim_20240827.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAE4DE0-4DC0-7443-951D-445AAA72EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C9874B-DD60-274C-97B4-93CDB9FD093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="9" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="35380" windowHeight="16320" activeTab="10" xr2:uid="{23B24788-F79F-AD45-95B6-AC4776616C47}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCN_ml100k - GPU" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Douban-music" sheetId="8" r:id="rId8"/>
     <sheet name="Gowalla-CPU" sheetId="5" r:id="rId9"/>
     <sheet name="LightGCN_ml100k - CPU" sheetId="2" r:id="rId10"/>
-    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId11"/>
-    <sheet name="ml-1m GPU" sheetId="12" r:id="rId12"/>
+    <sheet name="ml-1m CPU" sheetId="13" r:id="rId11"/>
+    <sheet name="AttnMode - GPU" sheetId="4" r:id="rId12"/>
+    <sheet name="ml-1m GPU" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="634">
   <si>
     <t> Dataset: ml-100k, num_users: 943, num_items: 1574, num_interactions: 82520</t>
   </si>
@@ -25311,6 +25312,570 @@
         <family val="2"/>
       </rPr>
       <t>, 0.0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ml-1m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | {'num_users': 6040, 'num_items': 3706, 'mean_rating': 3.58, 'num_interactions': 1000209, 'time_distance': 1039.0}</t>
+    </r>
+  </si>
+  <si>
+    <t>train Size:  669182  | test size:  167296</t>
+  </si>
+  <si>
+    <t>Number of unique Users :  6039</t>
+  </si>
+  <si>
+    <t>Number of unique Items :  3604</t>
+  </si>
+  <si>
+    <t>Preparing similarity matrix | Top-K: 35: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 00:01</t>
+  </si>
+  <si>
+    <t>bi edge len: 1338364 | knn edge len: 265417 | full edge len: 1338364</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  1 | seed  7 | #edges 1338364 | epoch(51) 50 | Batch(654) 653: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 2:24:43, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2488</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3408</t>
+    </r>
+  </si>
+  <si>
+    <t> Dataset: ml-1m, num_users: 6040, num_items: 3706, num_interactions: 1000209</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Shuffle: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Test Ratio: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.2484 | 0.2484, 0.0000</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2522 | 0.2522, 0.0000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2503 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.3416 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3416</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp  2 | seed  7 | #edges 265417 | epoch(51) 50 | Batch(654) 653: ❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯❯ 100% | 1:13:04, prec@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2581</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | recall@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | ncdg@20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3476</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   MODEL: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>LightGCNAttn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EDGE TYPE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>knn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | #LAYERS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | SIM (mode-exp, self-False): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>u-cosine(topK 35), i-cosine(topK 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | BATCH_SIZE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | DECAY: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | EPOCHS: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Shuffle: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Test Ratio: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB42419"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <t>  Recall: 0.2611 | 0.2611, 0.0000</t>
+  </si>
+  <si>
+    <t>    Prec: 0.2604 | 0.2604, 0.0000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F1 score: 0.2607 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2607</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    NDCG: 0.3516 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF400BD9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3516</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0.0000</t>
     </r>
   </si>
 </sst>
@@ -25435,7 +26000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -25463,6 +26028,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31410,7 +31976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54013D1-A792-E74E-8699-1312F0BD538A}">
   <dimension ref="B4:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -32161,6 +32727,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93B5AA3-116A-7B42-A7F1-EB85202AD355}">
+  <dimension ref="E4:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>0.35160000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f>0.3416</f>
+        <v>0.34160000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f>J30-J31</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="1">
+        <f>J32/J31</f>
+        <v>2.9274004683840775E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AAEC71-DFB9-584D-B757-F9042F83C789}">
   <dimension ref="F6:G160"/>
   <sheetViews>
@@ -32575,7 +33299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD53A4F0-6685-F846-B043-E09FCBA7D156}">
   <dimension ref="D4:J63"/>
   <sheetViews>
